--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_13_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_13_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3718806.581136979</v>
+        <v>-3719576.594736047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1359040.492873526</v>
+        <v>1359040.492873525</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>6.05642108929943</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,23 +1209,23 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.3538804794597</v>
+        <v>236.142921251247</v>
       </c>
       <c r="C11" t="n">
-        <v>40.14687173873725</v>
+        <v>233.8929305869866</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.81603987441156</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>89.52672523994667</v>
       </c>
       <c r="U11" t="n">
-        <v>119.9256841735671</v>
+        <v>119.9256841735668</v>
       </c>
       <c r="V11" t="n">
         <v>196.372297286114</v>
@@ -1433,7 +1433,7 @@
         <v>217.8610075333921</v>
       </c>
       <c r="X11" t="n">
-        <v>238.3511394944481</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>254.8579774720327</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S12" t="n">
         <v>166.71309989434</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>185.9211734543117</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>102.2861143481405</v>
       </c>
     </row>
     <row r="13">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.3538804794597</v>
+        <v>28.7114629618282</v>
       </c>
       <c r="C14" t="n">
-        <v>40.14687173873664</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.973249381957</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.81603987441156</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>66.24420776110921</v>
       </c>
       <c r="T14" t="n">
-        <v>89.52672523994673</v>
+        <v>89.52672523994667</v>
       </c>
       <c r="U14" t="n">
-        <v>119.9256841735673</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V14" t="n">
         <v>196.372297286114</v>
       </c>
       <c r="W14" t="n">
-        <v>217.8610075333922</v>
+        <v>217.8610075333921</v>
       </c>
       <c r="X14" t="n">
-        <v>238.3511394944482</v>
+        <v>238.3511394944481</v>
       </c>
       <c r="Y14" t="n">
         <v>254.8579774720327</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.15322246584648</v>
+        <v>35.15322246584643</v>
       </c>
       <c r="C15" t="n">
-        <v>41.32853780429488</v>
+        <v>41.32853780429483</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.06510438061784</v>
       </c>
       <c r="E15" t="n">
-        <v>26.26511927138009</v>
+        <v>26.26511927138003</v>
       </c>
       <c r="F15" t="n">
-        <v>13.68925120936302</v>
+        <v>13.68925120936296</v>
       </c>
       <c r="G15" t="n">
-        <v>5.695981897545028</v>
+        <v>5.695981897544971</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9833797548566</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.39302401945662</v>
+        <v>102.3764037743136</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.3027345932835</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.45201899791644</v>
+        <v>48.45201899791638</v>
       </c>
       <c r="C16" t="n">
-        <v>35.86685991460698</v>
+        <v>35.86685991460692</v>
       </c>
       <c r="D16" t="n">
-        <v>17.2355118341915</v>
+        <v>17.23551183419144</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05400146254831</v>
+        <v>15.05400146254826</v>
       </c>
       <c r="F16" t="n">
-        <v>14.04108683891039</v>
+        <v>14.04108683891033</v>
       </c>
       <c r="G16" t="n">
-        <v>36.3866930527829</v>
+        <v>36.38669305278285</v>
       </c>
       <c r="H16" t="n">
-        <v>28.85275705997697</v>
+        <v>28.85275705997691</v>
       </c>
       <c r="I16" t="n">
-        <v>17.32444553928517</v>
+        <v>17.32444553928512</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.82695699582462</v>
+        <v>35.82695699582456</v>
       </c>
       <c r="S16" t="n">
-        <v>88.72726177829104</v>
+        <v>88.72726177829098</v>
       </c>
       <c r="T16" t="n">
-        <v>95.60714817900744</v>
+        <v>95.60714817900738</v>
       </c>
       <c r="U16" t="n">
-        <v>154.9268322567434</v>
+        <v>154.9268322567433</v>
       </c>
       <c r="V16" t="n">
         <v>120.7576821398071</v>
@@ -1828,10 +1828,10 @@
         <v>155.1430371525701</v>
       </c>
       <c r="X16" t="n">
-        <v>94.3296942050163</v>
+        <v>94.32969420501624</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.20469216807393</v>
+        <v>87.20469216807388</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>145.2104945573971</v>
       </c>
       <c r="C17" t="n">
-        <v>127.7495446649241</v>
+        <v>127.749544664924</v>
       </c>
       <c r="D17" t="n">
-        <v>117.1596945145995</v>
+        <v>117.1596945145994</v>
       </c>
       <c r="E17" t="n">
         <v>144.4070229661783</v>
       </c>
       <c r="F17" t="n">
-        <v>169.352698635628</v>
+        <v>169.3526986356279</v>
       </c>
       <c r="G17" t="n">
-        <v>177.2792960309446</v>
+        <v>177.2792960309445</v>
       </c>
       <c r="H17" t="n">
-        <v>96.82986345989454</v>
+        <v>96.82986345989445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.7822982515045</v>
+        <v>13.78229825150441</v>
       </c>
       <c r="V17" t="n">
-        <v>90.22891136405147</v>
+        <v>90.22891136405138</v>
       </c>
       <c r="W17" t="n">
-        <v>111.7176216113296</v>
+        <v>111.7176216113295</v>
       </c>
       <c r="X17" t="n">
-        <v>132.2077535723856</v>
+        <v>132.2077535723855</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.7145915499702</v>
+        <v>148.7145915499701</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>84.72264456996791</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.87667434349918</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>166.71309989434</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>14.17163605483617</v>
+        <v>14.17163605483609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.3036712061526</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.78344633468082</v>
+        <v>48.78344633468073</v>
       </c>
       <c r="V19" t="n">
-        <v>14.61429621774457</v>
+        <v>14.61429621774448</v>
       </c>
       <c r="W19" t="n">
-        <v>48.99965123050757</v>
+        <v>48.99965123050748</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>180.3036712061528</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8.031415779204735</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.1440486031441</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.0871175408335</v>
+        <v>48.78344633468082</v>
       </c>
       <c r="V22" t="n">
         <v>14.61429621774457</v>
       </c>
       <c r="W22" t="n">
-        <v>48.99965123050757</v>
+        <v>229.3033224366601</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>177.2792960309445</v>
       </c>
       <c r="H23" t="n">
-        <v>96.82986345989451</v>
+        <v>96.82986345989453</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>111.7176216113296</v>
       </c>
       <c r="X23" t="n">
-        <v>132.2077535723856</v>
+        <v>132.2077535723847</v>
       </c>
       <c r="Y23" t="n">
         <v>148.7145915499702</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0862173745079</v>
+        <v>80.56041783982806</v>
       </c>
       <c r="U24" t="n">
-        <v>37.66418953340513</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.9257979141331</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.37787329201959</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>48.99965123050757</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>180.3036712061525</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>256.7513724346529</v>
       </c>
       <c r="G26" t="n">
-        <v>264.6779698299694</v>
+        <v>264.6779698299695</v>
       </c>
       <c r="H26" t="n">
         <v>184.2285372589194</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0713277513739</v>
+        <v>41.07132775137393</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.49949563807156</v>
+        <v>47.49949563807158</v>
       </c>
       <c r="T26" t="n">
-        <v>70.78201311690901</v>
+        <v>70.78201311690927</v>
       </c>
       <c r="U26" t="n">
-        <v>101.180972050529</v>
+        <v>101.1809720505294</v>
       </c>
       <c r="V26" t="n">
-        <v>177.6275851630763</v>
+        <v>177.6275851630764</v>
       </c>
       <c r="W26" t="n">
-        <v>199.1162954103544</v>
+        <v>199.1162954103545</v>
       </c>
       <c r="X26" t="n">
         <v>219.6064273714105</v>
@@ -2634,25 +2634,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>22.58382568125717</v>
+        <v>22.5838256812572</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.520407148342372</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.819973001186582</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>166.71309989434</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0862173745079</v>
+        <v>190.8019992365268</v>
       </c>
       <c r="U27" t="n">
         <v>225.9237785229719</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>101.570309853861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.70730687487873</v>
+        <v>29.70730687487875</v>
       </c>
       <c r="C28" t="n">
-        <v>17.12214779156926</v>
+        <v>17.12214779156929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.64198092974518</v>
+        <v>17.64198092974521</v>
       </c>
       <c r="H28" t="n">
-        <v>10.10804493693925</v>
+        <v>10.10804493693928</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.0822448727869</v>
+        <v>17.08224487278693</v>
       </c>
       <c r="S28" t="n">
-        <v>69.98254965525332</v>
+        <v>69.98254965525335</v>
       </c>
       <c r="T28" t="n">
-        <v>76.86243605596972</v>
+        <v>76.86243605596975</v>
       </c>
       <c r="U28" t="n">
         <v>136.1821201337057</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0129700167694</v>
+        <v>102.0129700167695</v>
       </c>
       <c r="W28" t="n">
-        <v>136.3983250295324</v>
+        <v>136.3983250295325</v>
       </c>
       <c r="X28" t="n">
-        <v>75.58498208197858</v>
+        <v>75.58498208197861</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.45998004503622</v>
+        <v>68.45998004503625</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>184.2285372589194</v>
       </c>
       <c r="I29" t="n">
-        <v>41.07132775137393</v>
+        <v>41.07132775137386</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.49949563807156</v>
+        <v>47.49949563807157</v>
       </c>
       <c r="T29" t="n">
         <v>70.78201311690904</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>90.98888950992969</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.94015928443686</v>
       </c>
       <c r="S30" t="n">
         <v>166.71309989434</v>
@@ -2925,7 +2925,7 @@
         <v>199.0862173745079</v>
       </c>
       <c r="U30" t="n">
-        <v>75.79910521591333</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.8301978021264</v>
+        <v>230.8301978021265</v>
       </c>
       <c r="C32" t="n">
-        <v>213.3692479096534</v>
+        <v>213.3692479096535</v>
       </c>
       <c r="D32" t="n">
-        <v>202.7793977593288</v>
+        <v>202.7793977593289</v>
       </c>
       <c r="E32" t="n">
-        <v>230.0267262109076</v>
+        <v>230.0267262109077</v>
       </c>
       <c r="F32" t="n">
-        <v>254.9724018803572</v>
+        <v>254.9724018803574</v>
       </c>
       <c r="G32" t="n">
-        <v>262.8989992756738</v>
+        <v>262.8989992756739</v>
       </c>
       <c r="H32" t="n">
-        <v>182.4495667046238</v>
+        <v>182.4495667046239</v>
       </c>
       <c r="I32" t="n">
-        <v>39.29235719707827</v>
+        <v>39.29235719707839</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.72052508377593</v>
+        <v>45.72052508377612</v>
       </c>
       <c r="T32" t="n">
-        <v>69.00304256261384</v>
+        <v>69.0030425626135</v>
       </c>
       <c r="U32" t="n">
-        <v>99.40200149623396</v>
+        <v>99.40200149623352</v>
       </c>
       <c r="V32" t="n">
-        <v>175.8486146087807</v>
+        <v>175.8486146087808</v>
       </c>
       <c r="W32" t="n">
-        <v>197.3373248560588</v>
+        <v>197.3373248560589</v>
       </c>
       <c r="X32" t="n">
-        <v>217.8274568171148</v>
+        <v>217.8274568171149</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.3342947946994</v>
+        <v>234.3342947946995</v>
       </c>
     </row>
     <row r="33">
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.62953978851314</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>20.80485512696154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>145.398396277669</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>5.74143659404686</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.329183884284852</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S33" t="n">
-        <v>166.71309989434</v>
+        <v>14.80945603298588</v>
       </c>
       <c r="T33" t="n">
         <v>199.0862173745079</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.9283363205831</v>
+        <v>27.92833632058321</v>
       </c>
       <c r="C34" t="n">
-        <v>15.34317723727364</v>
+        <v>15.34317723727375</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.86301037544956</v>
+        <v>15.86301037544967</v>
       </c>
       <c r="H34" t="n">
-        <v>8.329074382643629</v>
+        <v>8.329074382643743</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.30327431849127</v>
+        <v>15.30327431849139</v>
       </c>
       <c r="S34" t="n">
-        <v>68.2035791009577</v>
+        <v>68.20357910095781</v>
       </c>
       <c r="T34" t="n">
-        <v>75.0834655016741</v>
+        <v>75.08346550167421</v>
       </c>
       <c r="U34" t="n">
-        <v>134.40314957941</v>
+        <v>134.4031495794102</v>
       </c>
       <c r="V34" t="n">
-        <v>100.2339994624738</v>
+        <v>100.2339994624739</v>
       </c>
       <c r="W34" t="n">
-        <v>134.6193544752368</v>
+        <v>134.6193544752369</v>
       </c>
       <c r="X34" t="n">
-        <v>73.80601152768295</v>
+        <v>73.80601152768307</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.68100949074059</v>
+        <v>66.68100949074071</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.39895893362013</v>
+        <v>30.39895893362125</v>
       </c>
       <c r="V35" t="n">
         <v>106.8455720461673</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S36" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0862173745079</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>229.8447020957597</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>138.0262760495614</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.080422939060717</v>
+        <v>6.080422939060718</v>
       </c>
       <c r="U37" t="n">
-        <v>184.9704042724715</v>
+        <v>65.40010701679667</v>
       </c>
       <c r="V37" t="n">
         <v>31.23095689986042</v>
@@ -3487,7 +3487,7 @@
         <v>65.61631191262342</v>
       </c>
       <c r="X37" t="n">
-        <v>4.802968965069567</v>
+        <v>124.3732662207443</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>51.49728031842738</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V39" t="n">
-        <v>54.70742675133478</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.5702972556748</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.080422939060717</v>
+        <v>6.080422939060718</v>
       </c>
       <c r="U40" t="n">
         <v>65.40010701679667</v>
       </c>
       <c r="V40" t="n">
-        <v>31.23095689986042</v>
+        <v>150.8012541555351</v>
       </c>
       <c r="W40" t="n">
         <v>65.61631191262342</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.9546374739201</v>
+        <v>179.95463747392</v>
       </c>
       <c r="C41" t="n">
-        <v>162.4936875814471</v>
+        <v>162.4936875814469</v>
       </c>
       <c r="D41" t="n">
-        <v>151.9038374311225</v>
+        <v>151.9038374311224</v>
       </c>
       <c r="E41" t="n">
-        <v>179.1511658827013</v>
+        <v>179.1511658827012</v>
       </c>
       <c r="F41" t="n">
-        <v>204.0968415521509</v>
+        <v>204.0968415521508</v>
       </c>
       <c r="G41" t="n">
-        <v>212.0234389474675</v>
+        <v>212.0234389474674</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5740063764175</v>
+        <v>131.5740063764174</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.1274822344071</v>
+        <v>18.12748223440698</v>
       </c>
       <c r="U41" t="n">
-        <v>48.52644116802677</v>
+        <v>48.52644116802733</v>
       </c>
       <c r="V41" t="n">
-        <v>124.9730542805744</v>
+        <v>124.9730542805743</v>
       </c>
       <c r="W41" t="n">
-        <v>146.4617645278525</v>
+        <v>146.4617645278524</v>
       </c>
       <c r="X41" t="n">
-        <v>166.9518964889085</v>
+        <v>166.9518964889084</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.4587344664931</v>
+        <v>183.458734466493</v>
       </c>
     </row>
     <row r="42">
@@ -3822,16 +3822,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>166.71309989434</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>59.849672394282</v>
+        <v>3.942645821459236</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.32801877275141</v>
+        <v>17.3280187727513</v>
       </c>
       <c r="T43" t="n">
-        <v>24.20790517346781</v>
+        <v>24.2079051734677</v>
       </c>
       <c r="U43" t="n">
-        <v>83.52758925120376</v>
+        <v>83.52758925120365</v>
       </c>
       <c r="V43" t="n">
-        <v>49.35843913426751</v>
+        <v>49.3584391342674</v>
       </c>
       <c r="W43" t="n">
-        <v>83.74379414703051</v>
+        <v>83.7437941470304</v>
       </c>
       <c r="X43" t="n">
-        <v>22.93045119947666</v>
+        <v>22.93045119947655</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.8054491625343</v>
+        <v>15.80544916253419</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>179.95463747392</v>
       </c>
       <c r="C44" t="n">
-        <v>162.493687581447</v>
+        <v>162.4936875814469</v>
       </c>
       <c r="D44" t="n">
         <v>151.9038374311224</v>
@@ -3986,7 +3986,7 @@
         <v>179.1511658827012</v>
       </c>
       <c r="F44" t="n">
-        <v>204.0968415521509</v>
+        <v>204.0968415521508</v>
       </c>
       <c r="G44" t="n">
         <v>212.0234389474674</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.12748223440704</v>
+        <v>18.12748223440698</v>
       </c>
       <c r="U44" t="n">
-        <v>48.52644116802739</v>
+        <v>48.52644116802733</v>
       </c>
       <c r="V44" t="n">
-        <v>124.9730542805744</v>
+        <v>124.9730542805743</v>
       </c>
       <c r="W44" t="n">
-        <v>146.4617645278525</v>
+        <v>146.4617645278524</v>
       </c>
       <c r="X44" t="n">
-        <v>166.9518964889085</v>
+        <v>166.9518964889084</v>
       </c>
       <c r="Y44" t="n">
         <v>183.458734466493</v>
@@ -4062,13 +4062,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>166.71309989434</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U45" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V45" t="n">
-        <v>191.7361086222496</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>103.4861066066423</v>
       </c>
       <c r="X45" t="n">
-        <v>2.99378101391693</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.32801877275135</v>
+        <v>17.3280187727513</v>
       </c>
       <c r="T46" t="n">
-        <v>24.20790517346776</v>
+        <v>24.2079051734677</v>
       </c>
       <c r="U46" t="n">
-        <v>83.52758925120371</v>
+        <v>83.52758925120365</v>
       </c>
       <c r="V46" t="n">
-        <v>49.35843913426746</v>
+        <v>49.3584391342674</v>
       </c>
       <c r="W46" t="n">
-        <v>83.74379414703046</v>
+        <v>83.7437941470304</v>
       </c>
       <c r="X46" t="n">
-        <v>22.93045119947661</v>
+        <v>22.93045119947655</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.80544916253425</v>
+        <v>15.80544916253419</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +4808,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
         <v>7.082327113962777</v>
@@ -4832,22 +4832,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G9" t="n">
         <v>0.5500836593369149</v>
@@ -4893,7 +4893,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="N9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O9" t="n">
         <v>13.8896123982571</v>
@@ -4905,13 +4905,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
         <v>13.6131814684388</v>
@@ -4920,7 +4920,7 @@
         <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
         <v>6.667680719235332</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C10" t="n">
         <v>0.5500836593369149</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="R10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S10" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="V10" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="U10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.95107207538513</v>
+        <v>327.074404118477</v>
       </c>
       <c r="C11" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="D11" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="E11" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="F11" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="G11" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="H11" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="I11" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J11" t="n">
-        <v>60.58931629025219</v>
+        <v>60.58931629025218</v>
       </c>
       <c r="K11" t="n">
         <v>226.5820636478224</v>
       </c>
       <c r="L11" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698836</v>
       </c>
       <c r="M11" t="n">
         <v>788.6970746328857</v>
@@ -5075,16 +5075,16 @@
         <v>1241.452387495028</v>
       </c>
       <c r="V11" t="n">
-        <v>1043.096531650468</v>
+        <v>1043.096531650469</v>
       </c>
       <c r="W11" t="n">
-        <v>823.0349078793654</v>
+        <v>823.0349078793656</v>
       </c>
       <c r="X11" t="n">
-        <v>582.2761811172966</v>
+        <v>823.0349078793656</v>
       </c>
       <c r="Y11" t="n">
-        <v>324.8438806404959</v>
+        <v>565.6026074025649</v>
       </c>
     </row>
     <row r="12">
@@ -5142,25 +5142,25 @@
         <v>1519.933818984546</v>
       </c>
       <c r="R12" t="n">
-        <v>1519.933818984546</v>
+        <v>1435.545162742124</v>
       </c>
       <c r="S12" t="n">
-        <v>1351.536748384203</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="T12" t="n">
-        <v>1283.146590616034</v>
+        <v>1198.757934373612</v>
       </c>
       <c r="U12" t="n">
-        <v>1054.940753724143</v>
+        <v>970.5520974817211</v>
       </c>
       <c r="V12" t="n">
-        <v>819.7886454924007</v>
+        <v>735.3999892499785</v>
       </c>
       <c r="W12" t="n">
-        <v>565.5512887641992</v>
+        <v>481.1626325217769</v>
       </c>
       <c r="X12" t="n">
-        <v>377.7521236588338</v>
+        <v>273.311132316244</v>
       </c>
       <c r="Y12" t="n">
         <v>169.9918248938799</v>
@@ -5197,13 +5197,13 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J13" t="n">
-        <v>30.39867637969093</v>
+        <v>77.3478364415303</v>
       </c>
       <c r="K13" t="n">
-        <v>164.219916537006</v>
+        <v>81.10291502666465</v>
       </c>
       <c r="L13" t="n">
-        <v>354.6177204728128</v>
+        <v>271.5007189624715</v>
       </c>
       <c r="M13" t="n">
         <v>475.5672613811493</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.95107207538427</v>
+        <v>295.8424029012754</v>
       </c>
       <c r="C14" t="n">
-        <v>30.39867637969093</v>
+        <v>295.8424029012754</v>
       </c>
       <c r="D14" t="n">
-        <v>30.39867637969093</v>
+        <v>295.8424029012754</v>
       </c>
       <c r="E14" t="n">
-        <v>30.39867637969093</v>
+        <v>295.8424029012754</v>
       </c>
       <c r="F14" t="n">
-        <v>30.39867637969093</v>
+        <v>295.8424029012754</v>
       </c>
       <c r="G14" t="n">
-        <v>30.39867637969093</v>
+        <v>295.8424029012754</v>
       </c>
       <c r="H14" t="n">
-        <v>30.39867637969093</v>
+        <v>90.81891867707634</v>
       </c>
       <c r="I14" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J14" t="n">
-        <v>60.58931629025219</v>
+        <v>60.5893162902521</v>
       </c>
       <c r="K14" t="n">
-        <v>226.5820636478224</v>
+        <v>226.5820636478223</v>
       </c>
       <c r="L14" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698836</v>
       </c>
       <c r="M14" t="n">
         <v>788.6970746328857</v>
@@ -5315,13 +5315,13 @@
         <v>1043.096531650468</v>
       </c>
       <c r="W14" t="n">
-        <v>823.0349078793648</v>
+        <v>823.0349078793653</v>
       </c>
       <c r="X14" t="n">
-        <v>582.2761811172959</v>
+        <v>582.2761811172965</v>
       </c>
       <c r="Y14" t="n">
-        <v>324.8438806404951</v>
+        <v>324.8438806404957</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>295.4565910282549</v>
+        <v>134.4835193728229</v>
       </c>
       <c r="C15" t="n">
-        <v>253.7105932461389</v>
+        <v>92.73752159070689</v>
       </c>
       <c r="D15" t="n">
-        <v>104.7761835848876</v>
+        <v>76.51014342846665</v>
       </c>
       <c r="E15" t="n">
-        <v>78.2457600784431</v>
+        <v>49.97971992202218</v>
       </c>
       <c r="F15" t="n">
-        <v>64.41823360433904</v>
+        <v>36.15219344791817</v>
       </c>
       <c r="G15" t="n">
-        <v>58.66471653611173</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H15" t="n">
-        <v>58.66471653611173</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I15" t="n">
         <v>30.39867637969093</v>
@@ -5391,16 +5391,16 @@
         <v>837.8450659827101</v>
       </c>
       <c r="V15" t="n">
-        <v>735.3999892499784</v>
+        <v>735.3999892499785</v>
       </c>
       <c r="W15" t="n">
-        <v>481.1626325217767</v>
+        <v>481.1626325217769</v>
       </c>
       <c r="X15" t="n">
-        <v>406.0181638152549</v>
+        <v>377.7521236588338</v>
       </c>
       <c r="Y15" t="n">
-        <v>330.964896549312</v>
+        <v>169.9918248938799</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.8242882001982</v>
+        <v>196.8242882001978</v>
       </c>
       <c r="C16" t="n">
-        <v>160.5951367713023</v>
+        <v>160.595136771302</v>
       </c>
       <c r="D16" t="n">
-        <v>143.1855288579775</v>
+        <v>143.1855288579773</v>
       </c>
       <c r="E16" t="n">
-        <v>127.9794667745954</v>
+        <v>127.9794667745952</v>
       </c>
       <c r="F16" t="n">
-        <v>113.796550775696</v>
+        <v>113.7965507756959</v>
       </c>
       <c r="G16" t="n">
-        <v>77.04231536884461</v>
+        <v>77.0423153688445</v>
       </c>
       <c r="H16" t="n">
-        <v>47.89811631836282</v>
+        <v>47.89811631836276</v>
       </c>
       <c r="I16" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J16" t="n">
-        <v>30.39867637969093</v>
+        <v>77.3478364415303</v>
       </c>
       <c r="K16" t="n">
-        <v>81.10291502666612</v>
+        <v>81.10291502666465</v>
       </c>
       <c r="L16" t="n">
-        <v>271.5007189624729</v>
+        <v>271.5007189624715</v>
       </c>
       <c r="M16" t="n">
-        <v>475.5672613811506</v>
+        <v>475.5672613811493</v>
       </c>
       <c r="N16" t="n">
-        <v>683.3088565641355</v>
+        <v>683.3088565641342</v>
       </c>
       <c r="O16" t="n">
-        <v>869.1045576946432</v>
+        <v>869.104557694642</v>
       </c>
       <c r="P16" t="n">
-        <v>1023.336285705552</v>
+        <v>1023.336285705551</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.698352718633</v>
+        <v>1086.698352718632</v>
       </c>
       <c r="R16" t="n">
-        <v>1050.509507268305</v>
+        <v>1050.509507268304</v>
       </c>
       <c r="S16" t="n">
-        <v>960.8860105225567</v>
+        <v>960.8860105225557</v>
       </c>
       <c r="T16" t="n">
-        <v>864.3131335740643</v>
+        <v>864.3131335740634</v>
       </c>
       <c r="U16" t="n">
-        <v>707.821383819778</v>
+        <v>707.8213838197772</v>
       </c>
       <c r="V16" t="n">
-        <v>585.8439271129021</v>
+        <v>585.8439271129014</v>
       </c>
       <c r="W16" t="n">
-        <v>429.1337885749524</v>
+        <v>429.1337885749518</v>
       </c>
       <c r="X16" t="n">
-        <v>333.8512691759461</v>
+        <v>333.8512691759456</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.7657215314269</v>
+        <v>245.7657215314265</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>742.5487527506453</v>
       </c>
       <c r="D17" t="n">
-        <v>624.2056269783226</v>
+        <v>624.2056269783227</v>
       </c>
       <c r="E17" t="n">
-        <v>478.3399472145061</v>
+        <v>478.3399472145062</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2766152593263</v>
+        <v>307.2766152593265</v>
       </c>
       <c r="G17" t="n">
-        <v>128.2066192684733</v>
+        <v>128.2066192684732</v>
       </c>
       <c r="H17" t="n">
         <v>30.39867637969093</v>
@@ -5513,13 +5513,13 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J17" t="n">
-        <v>60.58931629025219</v>
+        <v>60.58931629025218</v>
       </c>
       <c r="K17" t="n">
         <v>226.5820636478224</v>
       </c>
       <c r="L17" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698836</v>
       </c>
       <c r="M17" t="n">
         <v>788.6970746328857</v>
@@ -5546,13 +5546,13 @@
         <v>1519.933818984546</v>
       </c>
       <c r="U17" t="n">
-        <v>1506.012305599189</v>
+        <v>1506.012305599188</v>
       </c>
       <c r="V17" t="n">
-        <v>1414.871991090046</v>
+        <v>1414.871991090045</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.02590865436</v>
+        <v>1302.025908654359</v>
       </c>
       <c r="X17" t="n">
         <v>1168.482723227707</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>400.9722117785977</v>
+        <v>373.8635641538866</v>
       </c>
       <c r="C18" t="n">
-        <v>400.9722117785977</v>
+        <v>199.4105348727595</v>
       </c>
       <c r="D18" t="n">
-        <v>400.9722117785977</v>
+        <v>50.47612521150828</v>
       </c>
       <c r="E18" t="n">
-        <v>400.9722117785977</v>
+        <v>50.47612521150828</v>
       </c>
       <c r="F18" t="n">
-        <v>254.4376538054827</v>
+        <v>50.47612521150828</v>
       </c>
       <c r="G18" t="n">
-        <v>115.9771052382444</v>
+        <v>50.47612521150828</v>
       </c>
       <c r="H18" t="n">
-        <v>30.39867637969093</v>
+        <v>50.47612521150828</v>
       </c>
       <c r="I18" t="n">
         <v>30.39867637969093</v>
@@ -5595,7 +5595,7 @@
         <v>30.39867637969093</v>
       </c>
       <c r="K18" t="n">
-        <v>30.39867637969093</v>
+        <v>119.3510688618062</v>
       </c>
       <c r="L18" t="n">
         <v>119.3510688618062</v>
@@ -5622,22 +5622,22 @@
         <v>1267.148092141781</v>
       </c>
       <c r="T18" t="n">
-        <v>1066.050902874601</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="U18" t="n">
-        <v>1066.050902874601</v>
+        <v>1038.94225524989</v>
       </c>
       <c r="V18" t="n">
-        <v>830.8987946428583</v>
+        <v>803.7901470181471</v>
       </c>
       <c r="W18" t="n">
-        <v>816.5840107490844</v>
+        <v>789.4753631243733</v>
       </c>
       <c r="X18" t="n">
-        <v>608.7325105435516</v>
+        <v>581.6238629188405</v>
       </c>
       <c r="Y18" t="n">
-        <v>400.9722117785977</v>
+        <v>373.8635641538866</v>
       </c>
     </row>
     <row r="19">
@@ -5686,31 +5686,31 @@
         <v>246.1612117857527</v>
       </c>
       <c r="O19" t="n">
-        <v>301.8907513440798</v>
+        <v>301.8907513440797</v>
       </c>
       <c r="P19" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="R19" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="S19" t="n">
-        <v>143.9313973725525</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="T19" t="n">
-        <v>143.9313973725525</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="U19" t="n">
-        <v>94.65518895368298</v>
+        <v>276.7801093639382</v>
       </c>
       <c r="V19" t="n">
-        <v>79.89327358222383</v>
+        <v>262.0181939924792</v>
       </c>
       <c r="W19" t="n">
-        <v>30.39867637969093</v>
+        <v>212.5235967899463</v>
       </c>
       <c r="X19" t="n">
         <v>30.39867637969093</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.5886968566288</v>
+        <v>871.5886968566284</v>
       </c>
       <c r="C20" t="n">
         <v>742.5487527506444</v>
@@ -5750,13 +5750,13 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J20" t="n">
-        <v>60.5893162902521</v>
+        <v>60.58931629025218</v>
       </c>
       <c r="K20" t="n">
         <v>226.5820636478224</v>
       </c>
       <c r="L20" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698836</v>
       </c>
       <c r="M20" t="n">
         <v>788.6970746328857</v>
@@ -5792,10 +5792,10 @@
         <v>1302.025908654359</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227706</v>
       </c>
       <c r="Y20" t="n">
-        <v>1018.265964086323</v>
+        <v>1018.265964086322</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.8592249469292</v>
+        <v>257.9658107473458</v>
       </c>
       <c r="C21" t="n">
-        <v>168.8592249469292</v>
+        <v>249.8532695562299</v>
       </c>
       <c r="D21" t="n">
-        <v>168.8592249469292</v>
+        <v>249.8532695562299</v>
       </c>
       <c r="E21" t="n">
-        <v>168.8592249469292</v>
+        <v>249.8532695562299</v>
       </c>
       <c r="F21" t="n">
-        <v>168.8592249469292</v>
+        <v>249.8532695562299</v>
       </c>
       <c r="G21" t="n">
-        <v>30.39867637969093</v>
+        <v>111.3927209889916</v>
       </c>
       <c r="H21" t="n">
-        <v>30.39867637969093</v>
+        <v>111.3927209889916</v>
       </c>
       <c r="I21" t="n">
         <v>30.39867637969093</v>
@@ -5835,7 +5835,7 @@
         <v>30.39867637969093</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8784154177991</v>
+        <v>119.3510688618062</v>
       </c>
       <c r="M21" t="n">
         <v>495.5346890604814</v>
@@ -5853,28 +5853,28 @@
         <v>1519.933818984546</v>
       </c>
       <c r="R21" t="n">
-        <v>1435.545162742124</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="S21" t="n">
-        <v>1302.066325769251</v>
+        <v>1351.536748384203</v>
       </c>
       <c r="T21" t="n">
-        <v>1302.066325769251</v>
+        <v>1351.536748384203</v>
       </c>
       <c r="U21" t="n">
-        <v>1073.86048887736</v>
+        <v>1123.330911492312</v>
       </c>
       <c r="V21" t="n">
-        <v>838.7083806456176</v>
+        <v>888.1788032605693</v>
       </c>
       <c r="W21" t="n">
-        <v>584.471023917416</v>
+        <v>633.9414465323678</v>
       </c>
       <c r="X21" t="n">
-        <v>376.6195237118831</v>
+        <v>633.9414465323678</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.8592249469292</v>
+        <v>426.1811477674138</v>
       </c>
     </row>
     <row r="22">
@@ -5923,28 +5923,28 @@
         <v>246.1612117857527</v>
       </c>
       <c r="O22" t="n">
-        <v>301.8907513440798</v>
+        <v>301.8907513440797</v>
       </c>
       <c r="P22" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="R22" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="S22" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="T22" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="U22" t="n">
-        <v>94.65518895368298</v>
+        <v>276.7801093639381</v>
       </c>
       <c r="V22" t="n">
-        <v>79.89327358222383</v>
+        <v>262.0181939924789</v>
       </c>
       <c r="W22" t="n">
         <v>30.39867637969093</v>
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.5886968566285</v>
+        <v>871.5886968566294</v>
       </c>
       <c r="C23" t="n">
-        <v>742.5487527506446</v>
+        <v>742.5487527506455</v>
       </c>
       <c r="D23" t="n">
-        <v>624.2056269783218</v>
+        <v>624.2056269783227</v>
       </c>
       <c r="E23" t="n">
-        <v>478.3399472145053</v>
+        <v>478.3399472145062</v>
       </c>
       <c r="F23" t="n">
-        <v>307.2766152593255</v>
+        <v>307.2766152593264</v>
       </c>
       <c r="G23" t="n">
-        <v>128.2066192684724</v>
+        <v>128.2066192684733</v>
       </c>
       <c r="H23" t="n">
-        <v>30.39867637969006</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I23" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J23" t="n">
-        <v>60.58931629025219</v>
+        <v>60.58931629025218</v>
       </c>
       <c r="K23" t="n">
         <v>226.5820636478224</v>
       </c>
       <c r="L23" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698836</v>
       </c>
       <c r="M23" t="n">
         <v>788.6970746328857</v>
@@ -6029,7 +6029,7 @@
         <v>1302.025908654359</v>
       </c>
       <c r="X23" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227708</v>
       </c>
       <c r="Y23" t="n">
         <v>1018.265964086323</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>566.0991436288134</v>
+        <v>260.3271306502429</v>
       </c>
       <c r="C24" t="n">
-        <v>566.0991436288134</v>
+        <v>260.3271306502429</v>
       </c>
       <c r="D24" t="n">
-        <v>417.1647339675622</v>
+        <v>111.3927209889916</v>
       </c>
       <c r="E24" t="n">
-        <v>257.9272789621067</v>
+        <v>111.3927209889916</v>
       </c>
       <c r="F24" t="n">
         <v>111.3927209889916</v>
@@ -6072,7 +6072,7 @@
         <v>30.39867637969093</v>
       </c>
       <c r="L24" t="n">
-        <v>119.3510688618062</v>
+        <v>317.8784154177991</v>
       </c>
       <c r="M24" t="n">
         <v>495.5346890604814</v>
@@ -6093,25 +6093,25 @@
         <v>1435.545162742124</v>
       </c>
       <c r="S24" t="n">
-        <v>1435.545162742124</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.447973474944</v>
+        <v>1185.773932707611</v>
       </c>
       <c r="U24" t="n">
-        <v>1196.403337582616</v>
+        <v>957.56809581572</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.403337582616</v>
+        <v>722.4159875839773</v>
       </c>
       <c r="W24" t="n">
-        <v>942.1659808544143</v>
+        <v>468.1786308557757</v>
       </c>
       <c r="X24" t="n">
-        <v>734.3144806488815</v>
+        <v>260.3271306502429</v>
       </c>
       <c r="Y24" t="n">
-        <v>734.3144806488815</v>
+        <v>260.3271306502429</v>
       </c>
     </row>
     <row r="25">
@@ -6160,37 +6160,37 @@
         <v>246.1612117857527</v>
       </c>
       <c r="O25" t="n">
-        <v>301.8907513440798</v>
+        <v>301.8907513440797</v>
       </c>
       <c r="P25" t="n">
-        <v>326.0563177828077</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.9978599120809</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="R25" t="n">
-        <v>257.9978599120809</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="S25" t="n">
-        <v>257.9978599120809</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="T25" t="n">
-        <v>257.9978599120809</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="U25" t="n">
-        <v>208.7216514932113</v>
+        <v>276.7801093639381</v>
       </c>
       <c r="V25" t="n">
-        <v>193.9597361217522</v>
+        <v>262.0181939924789</v>
       </c>
       <c r="W25" t="n">
-        <v>144.4651389192193</v>
+        <v>212.523596789946</v>
       </c>
       <c r="X25" t="n">
-        <v>144.4651389192193</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.4651389192193</v>
+        <v>30.39867637969093</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>1467.668723218726</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.347290426859</v>
+        <v>1250.347290426858</v>
       </c>
       <c r="D26" t="n">
         <v>1043.722675968652</v>
       </c>
       <c r="E26" t="n">
-        <v>809.5755075189518</v>
+        <v>809.5755075189513</v>
       </c>
       <c r="F26" t="n">
-        <v>550.2306868778883</v>
+        <v>550.2306868778878</v>
       </c>
       <c r="G26" t="n">
-        <v>282.8792022011509</v>
+        <v>282.879202201151</v>
       </c>
       <c r="H26" t="n">
-        <v>96.78977062648488</v>
+        <v>96.78977062648494</v>
       </c>
       <c r="I26" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1176474631818</v>
+        <v>234.1176474631817</v>
       </c>
       <c r="K26" t="n">
-        <v>548.7338213947399</v>
+        <v>548.7338213947398</v>
       </c>
       <c r="L26" t="n">
-        <v>955.5625566907893</v>
+        <v>955.5625566907889</v>
       </c>
       <c r="M26" t="n">
         <v>1408.095685527779</v>
@@ -6239,7 +6239,7 @@
         <v>1850.914393529383</v>
       </c>
       <c r="O26" t="n">
-        <v>2232.150444128817</v>
+        <v>2232.150444128816</v>
       </c>
       <c r="P26" t="n">
         <v>2541.62898071773</v>
@@ -6248,7 +6248,7 @@
         <v>2733.826136175392</v>
       </c>
       <c r="R26" t="n">
-        <v>2765.179048931623</v>
+        <v>2765.179048931624</v>
       </c>
       <c r="S26" t="n">
         <v>2717.199760408319</v>
@@ -6257,19 +6257,19 @@
         <v>2645.702777461946</v>
       </c>
       <c r="U26" t="n">
-        <v>2543.499775390705</v>
+        <v>2543.499775390704</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.077972195678</v>
+        <v>2364.077972195677</v>
       </c>
       <c r="W26" t="n">
-        <v>2162.950401074108</v>
+        <v>2162.950401074107</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.125726961572</v>
+        <v>1941.125726961571</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.627479134304</v>
+        <v>1702.627479134303</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.6261681561435</v>
+        <v>237.352981116671</v>
       </c>
       <c r="C27" t="n">
-        <v>357.8142230235605</v>
+        <v>214.541035984088</v>
       </c>
       <c r="D27" t="n">
-        <v>357.8142230235605</v>
+        <v>214.541035984088</v>
       </c>
       <c r="E27" t="n">
-        <v>350.217852166649</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="F27" t="n">
-        <v>203.683294193534</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="G27" t="n">
-        <v>65.22274562629568</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="H27" t="n">
-        <v>65.22274562629568</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I27" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J27" t="n">
-        <v>79.5915395997707</v>
+        <v>79.59153959977073</v>
       </c>
       <c r="K27" t="n">
         <v>247.7243725272378</v>
@@ -6333,22 +6333,22 @@
         <v>1731.504711117169</v>
       </c>
       <c r="T27" t="n">
-        <v>1530.407521849989</v>
+        <v>1538.775418959061</v>
       </c>
       <c r="U27" t="n">
-        <v>1302.201684958098</v>
+        <v>1310.56958206717</v>
       </c>
       <c r="V27" t="n">
-        <v>1067.049576726356</v>
+        <v>1075.417473835427</v>
       </c>
       <c r="W27" t="n">
-        <v>964.4533041466982</v>
+        <v>821.1801171072258</v>
       </c>
       <c r="X27" t="n">
-        <v>756.6018039411654</v>
+        <v>613.328616901693</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.8415051762115</v>
+        <v>405.568318136739</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.82450804513415</v>
+        <v>94.47831159901881</v>
       </c>
       <c r="C28" t="n">
-        <v>73.52940926577126</v>
+        <v>77.18321281965589</v>
       </c>
       <c r="D28" t="n">
-        <v>75.02351755172901</v>
+        <v>78.67732110561361</v>
       </c>
       <c r="E28" t="n">
-        <v>78.67732110561352</v>
+        <v>78.67732110561361</v>
       </c>
       <c r="F28" t="n">
-        <v>83.33391013689956</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="G28" t="n">
-        <v>65.5137273795812</v>
+        <v>65.51372737958124</v>
       </c>
       <c r="H28" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I28" t="n">
-        <v>56.70964489654748</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J28" t="n">
-        <v>128.608671395028</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="K28" t="n">
-        <v>132.3637499801624</v>
+        <v>76.1730597317103</v>
       </c>
       <c r="L28" t="n">
-        <v>192.6953923437885</v>
+        <v>136.5047020953365</v>
       </c>
       <c r="M28" t="n">
-        <v>415.3191997642735</v>
+        <v>359.1285095158214</v>
       </c>
       <c r="N28" t="n">
-        <v>492.9946333750778</v>
+        <v>436.8039431266257</v>
       </c>
       <c r="O28" t="n">
-        <v>555.583773690167</v>
+        <v>641.1569092589407</v>
       </c>
       <c r="P28" t="n">
-        <v>728.3727667028829</v>
+        <v>813.9459022716566</v>
       </c>
       <c r="Q28" t="n">
-        <v>810.2920987177715</v>
+        <v>813.9459022716566</v>
       </c>
       <c r="R28" t="n">
-        <v>793.0373059169767</v>
+        <v>796.6911094708616</v>
       </c>
       <c r="S28" t="n">
-        <v>722.3478618207613</v>
+        <v>726.0016653746461</v>
       </c>
       <c r="T28" t="n">
-        <v>644.709037521802</v>
+        <v>648.3628410756868</v>
       </c>
       <c r="U28" t="n">
-        <v>507.1513404170487</v>
+        <v>510.8051439709336</v>
       </c>
       <c r="V28" t="n">
-        <v>404.1079363597059</v>
+        <v>407.7617399135906</v>
       </c>
       <c r="W28" t="n">
-        <v>266.3318504712893</v>
+        <v>269.985654025174</v>
       </c>
       <c r="X28" t="n">
-        <v>189.9833837218159</v>
+        <v>193.6371872757006</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.8318887268298</v>
+        <v>124.4856922807145</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>550.2306868778878</v>
       </c>
       <c r="G29" t="n">
-        <v>282.879202201151</v>
+        <v>282.8792022011509</v>
       </c>
       <c r="H29" t="n">
-        <v>96.78977062648491</v>
+        <v>96.78977062648485</v>
       </c>
       <c r="I29" t="n">
-        <v>55.30358097863245</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J29" t="n">
         <v>234.1176474631816</v>
       </c>
       <c r="K29" t="n">
-        <v>548.7338213947399</v>
+        <v>548.7338213947401</v>
       </c>
       <c r="L29" t="n">
-        <v>955.5625566907891</v>
+        <v>955.5625566907892</v>
       </c>
       <c r="M29" t="n">
         <v>1408.095685527779</v>
@@ -6476,13 +6476,13 @@
         <v>1850.914393529383</v>
       </c>
       <c r="O29" t="n">
-        <v>2232.150444128816</v>
+        <v>2232.150444128817</v>
       </c>
       <c r="P29" t="n">
-        <v>2541.62898071773</v>
+        <v>2541.628980717729</v>
       </c>
       <c r="Q29" t="n">
-        <v>2733.826136175392</v>
+        <v>2733.826136175391</v>
       </c>
       <c r="R29" t="n">
         <v>2765.179048931623</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>616.6559085471097</v>
+        <v>386.2873907779223</v>
       </c>
       <c r="C30" t="n">
-        <v>442.2028792659827</v>
+        <v>211.8343614967952</v>
       </c>
       <c r="D30" t="n">
-        <v>293.2684696047314</v>
+        <v>62.89995183554397</v>
       </c>
       <c r="E30" t="n">
-        <v>285.6720987478199</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="F30" t="n">
-        <v>285.6720987478199</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="G30" t="n">
-        <v>147.2115501805816</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="H30" t="n">
-        <v>55.30358097863245</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="I30" t="n">
-        <v>55.30358097863245</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J30" t="n">
         <v>79.5915395997707</v>
@@ -6564,28 +6564,28 @@
         <v>1984.290437959934</v>
       </c>
       <c r="R30" t="n">
-        <v>1984.290437959934</v>
+        <v>1905.563004339291</v>
       </c>
       <c r="S30" t="n">
-        <v>1815.893367359591</v>
+        <v>1737.165933738948</v>
       </c>
       <c r="T30" t="n">
-        <v>1614.796178092412</v>
+        <v>1536.068744471768</v>
       </c>
       <c r="U30" t="n">
-        <v>1538.231425349065</v>
+        <v>1307.862907579877</v>
       </c>
       <c r="V30" t="n">
-        <v>1303.079317117322</v>
+        <v>1072.710799348135</v>
       </c>
       <c r="W30" t="n">
-        <v>1048.84196038912</v>
+        <v>818.4734426199329</v>
       </c>
       <c r="X30" t="n">
-        <v>992.6315443321316</v>
+        <v>762.2630265629441</v>
       </c>
       <c r="Y30" t="n">
-        <v>784.8712455671778</v>
+        <v>554.5027277979902</v>
       </c>
     </row>
     <row r="31">
@@ -6613,28 +6613,28 @@
         <v>65.51372737958123</v>
       </c>
       <c r="H31" t="n">
-        <v>55.30358097863245</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="I31" t="n">
-        <v>55.30358097863245</v>
+        <v>56.70964489654745</v>
       </c>
       <c r="J31" t="n">
-        <v>55.30358097863245</v>
+        <v>128.608671395028</v>
       </c>
       <c r="K31" t="n">
-        <v>59.0586595637668</v>
+        <v>139.2233507369253</v>
       </c>
       <c r="L31" t="n">
-        <v>119.390301927393</v>
+        <v>348.1784196745394</v>
       </c>
       <c r="M31" t="n">
-        <v>342.0141093478779</v>
+        <v>422.1788005210365</v>
       </c>
       <c r="N31" t="n">
-        <v>419.6895429586822</v>
+        <v>648.4776607058286</v>
       </c>
       <c r="O31" t="n">
-        <v>555.5837736901676</v>
+        <v>704.2072002641556</v>
       </c>
       <c r="P31" t="n">
         <v>728.3727667028835</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1454.540059882551</v>
+        <v>1454.540059882552</v>
       </c>
       <c r="C32" t="n">
-        <v>1239.015567044517</v>
+        <v>1239.015567044518</v>
       </c>
       <c r="D32" t="n">
         <v>1034.187892540145</v>
       </c>
       <c r="E32" t="n">
-        <v>801.8376640442784</v>
+        <v>801.8376640442789</v>
       </c>
       <c r="F32" t="n">
-        <v>544.2897833570489</v>
+        <v>544.2897833570491</v>
       </c>
       <c r="G32" t="n">
-        <v>278.7352386341461</v>
+        <v>278.7352386341463</v>
       </c>
       <c r="H32" t="n">
-        <v>94.442747013314</v>
+        <v>94.44274701331412</v>
       </c>
       <c r="I32" t="n">
-        <v>54.75349731929554</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="J32" t="n">
-        <v>235.3287446525975</v>
+        <v>235.3287446525973</v>
       </c>
       <c r="K32" t="n">
-        <v>551.7060994329083</v>
+        <v>551.7060994329081</v>
       </c>
       <c r="L32" t="n">
-        <v>960.2960155777102</v>
+        <v>960.2960155777098</v>
       </c>
       <c r="M32" t="n">
-        <v>1371.785598317169</v>
+        <v>1414.590325263453</v>
       </c>
       <c r="N32" t="n">
-        <v>1816.365487167526</v>
+        <v>1816.365487167527</v>
       </c>
       <c r="O32" t="n">
-        <v>2199.362718615712</v>
+        <v>2199.362718615713</v>
       </c>
       <c r="P32" t="n">
-        <v>2510.602436053378</v>
+        <v>2510.602436053379</v>
       </c>
       <c r="Q32" t="n">
-        <v>2704.560772359793</v>
+        <v>2704.560772359794</v>
       </c>
       <c r="R32" t="n">
         <v>2737.674865964777</v>
       </c>
       <c r="S32" t="n">
-        <v>2691.492517395306</v>
+        <v>2691.492517395307</v>
       </c>
       <c r="T32" t="n">
-        <v>2621.792474402767</v>
+        <v>2621.792474402768</v>
       </c>
       <c r="U32" t="n">
-        <v>2521.386412285359</v>
+        <v>2521.38641228536</v>
       </c>
       <c r="V32" t="n">
-        <v>2343.761549044166</v>
+        <v>2343.761549044168</v>
       </c>
       <c r="W32" t="n">
-        <v>2144.43091787643</v>
+        <v>2144.430917876432</v>
       </c>
       <c r="X32" t="n">
-        <v>1924.403183717728</v>
+        <v>1924.403183717729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1687.701875844294</v>
+        <v>1687.701875844296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>381.8730244506405</v>
+        <v>381.8730244506403</v>
       </c>
       <c r="C33" t="n">
-        <v>360.8580192718915</v>
+        <v>207.4199951695133</v>
       </c>
       <c r="D33" t="n">
-        <v>213.990952324751</v>
+        <v>207.4199951695133</v>
       </c>
       <c r="E33" t="n">
-        <v>54.75349731929554</v>
+        <v>201.6205642664357</v>
       </c>
       <c r="F33" t="n">
-        <v>54.75349731929554</v>
+        <v>55.08600629332065</v>
       </c>
       <c r="G33" t="n">
-        <v>54.75349731929554</v>
+        <v>55.08600629332065</v>
       </c>
       <c r="H33" t="n">
-        <v>54.75349731929554</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="I33" t="n">
-        <v>54.75349731929554</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="J33" t="n">
         <v>79.04145594043379</v>
@@ -6804,25 +6804,25 @@
         <v>1899.351698058175</v>
       </c>
       <c r="S33" t="n">
-        <v>1730.954627457832</v>
+        <v>1884.39265156021</v>
       </c>
       <c r="T33" t="n">
-        <v>1529.857438190652</v>
+        <v>1683.29546229303</v>
       </c>
       <c r="U33" t="n">
-        <v>1301.651601298762</v>
+        <v>1455.089625401139</v>
       </c>
       <c r="V33" t="n">
-        <v>1066.499493067019</v>
+        <v>1219.937517169397</v>
       </c>
       <c r="W33" t="n">
-        <v>812.2621363388173</v>
+        <v>965.7001604411951</v>
       </c>
       <c r="X33" t="n">
-        <v>604.4106361332845</v>
+        <v>757.8486602356622</v>
       </c>
       <c r="Y33" t="n">
-        <v>396.6503373683306</v>
+        <v>550.0883614707084</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.60006197803735</v>
+        <v>88.2703355153854</v>
       </c>
       <c r="C34" t="n">
-        <v>64.10190315250841</v>
+        <v>72.77217668985635</v>
       </c>
       <c r="D34" t="n">
-        <v>67.35719228721884</v>
+        <v>72.77217668985635</v>
       </c>
       <c r="E34" t="n">
-        <v>72.77217668985601</v>
+        <v>72.77217668985635</v>
       </c>
       <c r="F34" t="n">
-        <v>79.18994656989473</v>
+        <v>79.18994656989496</v>
       </c>
       <c r="G34" t="n">
-        <v>63.16670376641032</v>
+        <v>63.16670376641044</v>
       </c>
       <c r="H34" t="n">
-        <v>54.75349731929554</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="I34" t="n">
-        <v>57.92074208596323</v>
+        <v>57.92074208596312</v>
       </c>
       <c r="J34" t="n">
-        <v>57.92074208596323</v>
+        <v>57.92074208596312</v>
       </c>
       <c r="K34" t="n">
-        <v>106.5429025390641</v>
+        <v>61.67582067109745</v>
       </c>
       <c r="L34" t="n">
-        <v>317.2591523254309</v>
+        <v>272.3920704574642</v>
       </c>
       <c r="M34" t="n">
-        <v>391.259533171928</v>
+        <v>399.9298067092773</v>
       </c>
       <c r="N34" t="n">
-        <v>468.9349667827322</v>
+        <v>477.6052403200815</v>
       </c>
       <c r="O34" t="n">
-        <v>675.0491137637999</v>
+        <v>683.7193873011491</v>
       </c>
       <c r="P34" t="n">
-        <v>699.2146802025278</v>
+        <v>707.884953739877</v>
       </c>
       <c r="Q34" t="n">
-        <v>782.8951930661691</v>
+        <v>791.5654666035182</v>
       </c>
       <c r="R34" t="n">
-        <v>767.4373402192082</v>
+        <v>776.1076137565572</v>
       </c>
       <c r="S34" t="n">
-        <v>698.5448360768266</v>
+        <v>707.2151096141755</v>
       </c>
       <c r="T34" t="n">
-        <v>622.7029517317013</v>
+        <v>631.3732252690501</v>
       </c>
       <c r="U34" t="n">
-        <v>486.9421945807821</v>
+        <v>495.6124681181307</v>
       </c>
       <c r="V34" t="n">
-        <v>385.6957304772732</v>
+        <v>394.3660040146217</v>
       </c>
       <c r="W34" t="n">
-        <v>249.7165845426906</v>
+        <v>258.3868580800389</v>
       </c>
       <c r="X34" t="n">
-        <v>175.1650577470512</v>
+        <v>183.8353312843995</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.8105027058991</v>
+        <v>116.4807762432472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>976.4062224952077</v>
+        <v>976.4062224952086</v>
       </c>
       <c r="C35" t="n">
-        <v>830.5817726497125</v>
+        <v>830.5817726497135</v>
       </c>
       <c r="D35" t="n">
-        <v>695.4541411378789</v>
+        <v>695.4541411378798</v>
       </c>
       <c r="E35" t="n">
-        <v>532.8039556345514</v>
+        <v>532.8039556345523</v>
       </c>
       <c r="F35" t="n">
-        <v>344.9561179398606</v>
+        <v>344.9561179398615</v>
       </c>
       <c r="G35" t="n">
-        <v>149.1016162094971</v>
+        <v>149.1016162094972</v>
       </c>
       <c r="H35" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I35" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J35" t="n">
-        <v>64.69980749176509</v>
+        <v>64.69980749176511</v>
       </c>
       <c r="K35" t="n">
         <v>230.6925548493353</v>
@@ -6953,34 +6953,34 @@
         <v>1319.61547128746</v>
       </c>
       <c r="P35" t="n">
-        <v>1557.407852130496</v>
+        <v>1480.470581302385</v>
       </c>
       <c r="Q35" t="n">
-        <v>1600.98158101417</v>
+        <v>1600.981581014172</v>
       </c>
       <c r="R35" t="n">
-        <v>1702.408686756142</v>
+        <v>1702.408686756144</v>
       </c>
       <c r="S35" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="T35" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="U35" t="n">
-        <v>1694.752359935322</v>
+        <v>1694.752359935323</v>
       </c>
       <c r="V35" t="n">
-        <v>1586.827539686668</v>
+        <v>1586.827539686669</v>
       </c>
       <c r="W35" t="n">
-        <v>1457.196951511471</v>
+        <v>1457.196951511472</v>
       </c>
       <c r="X35" t="n">
         <v>1306.869260345308</v>
       </c>
       <c r="Y35" t="n">
-        <v>1139.867995464413</v>
+        <v>1139.867995464414</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>368.1996518677863</v>
+        <v>375.1964520756592</v>
       </c>
       <c r="C36" t="n">
-        <v>193.7466225866593</v>
+        <v>375.1964520756592</v>
       </c>
       <c r="D36" t="n">
-        <v>193.7466225866593</v>
+        <v>226.2620424144079</v>
       </c>
       <c r="E36" t="n">
-        <v>34.50916758120382</v>
+        <v>226.2620424144079</v>
       </c>
       <c r="F36" t="n">
-        <v>34.50916758120382</v>
+        <v>226.2620424144079</v>
       </c>
       <c r="G36" t="n">
-        <v>34.50916758120382</v>
+        <v>226.2620424144079</v>
       </c>
       <c r="H36" t="n">
-        <v>34.50916758120382</v>
+        <v>115.5032121905046</v>
       </c>
       <c r="I36" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J36" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="K36" t="n">
-        <v>34.50916758120382</v>
+        <v>202.642000508671</v>
       </c>
       <c r="L36" t="n">
-        <v>276.3720526656023</v>
+        <v>276.3720526656043</v>
       </c>
       <c r="M36" t="n">
-        <v>663.826570220089</v>
+        <v>663.8265702200911</v>
       </c>
       <c r="N36" t="n">
-        <v>1077.242869334801</v>
+        <v>1077.242869334803</v>
       </c>
       <c r="O36" t="n">
-        <v>1389.02233734382</v>
+        <v>1389.022337343822</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.249779707094</v>
+        <v>1622.249779707096</v>
       </c>
       <c r="Q36" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="R36" t="n">
-        <v>1641.069722817768</v>
+        <v>1641.069722817771</v>
       </c>
       <c r="S36" t="n">
-        <v>1472.672652217425</v>
+        <v>1641.069722817771</v>
       </c>
       <c r="T36" t="n">
-        <v>1271.575462950245</v>
+        <v>1439.972533550591</v>
       </c>
       <c r="U36" t="n">
-        <v>1043.369626058354</v>
+        <v>1211.7666966587</v>
       </c>
       <c r="V36" t="n">
-        <v>808.2175178266118</v>
+        <v>976.6145884269574</v>
       </c>
       <c r="W36" t="n">
-        <v>576.0511520733191</v>
+        <v>722.3772316987558</v>
       </c>
       <c r="X36" t="n">
-        <v>368.1996518677863</v>
+        <v>582.956750840613</v>
       </c>
       <c r="Y36" t="n">
-        <v>368.1996518677863</v>
+        <v>375.1964520756592</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="C37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="D37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="E37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="F37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="G37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="H37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="K37" t="n">
-        <v>38.26424616633816</v>
+        <v>38.2642461663382</v>
       </c>
       <c r="L37" t="n">
-        <v>98.59588852996433</v>
+        <v>98.59588852996436</v>
       </c>
       <c r="M37" t="n">
         <v>172.5962693764614</v>
@@ -7126,19 +7126,19 @@
         <v>324.024967631734</v>
       </c>
       <c r="U37" t="n">
-        <v>137.1861754373184</v>
+        <v>257.9642534733536</v>
       </c>
       <c r="V37" t="n">
-        <v>105.6397543263483</v>
+        <v>226.4178323623834</v>
       </c>
       <c r="W37" t="n">
-        <v>39.36065138430439</v>
+        <v>160.1387294203396</v>
       </c>
       <c r="X37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.50916758120382</v>
+        <v>34.50916758120385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>976.406222495209</v>
+        <v>976.406222495208</v>
       </c>
       <c r="C38" t="n">
-        <v>830.5817726497141</v>
+        <v>830.581772649713</v>
       </c>
       <c r="D38" t="n">
-        <v>695.4541411378804</v>
+        <v>695.4541411378793</v>
       </c>
       <c r="E38" t="n">
-        <v>532.8039556345528</v>
+        <v>532.8039556345518</v>
       </c>
       <c r="F38" t="n">
-        <v>344.9561179398622</v>
+        <v>344.956117939861</v>
       </c>
       <c r="G38" t="n">
-        <v>149.1016162094972</v>
+        <v>149.1016162094971</v>
       </c>
       <c r="H38" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="I38" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="J38" t="n">
-        <v>64.6998074917651</v>
+        <v>64.69980749176509</v>
       </c>
       <c r="K38" t="n">
-        <v>230.6925548493354</v>
+        <v>230.6925548493353</v>
       </c>
       <c r="L38" t="n">
-        <v>488.8978635713966</v>
+        <v>488.8978635713965</v>
       </c>
       <c r="M38" t="n">
-        <v>792.8075658343987</v>
+        <v>792.8075658343986</v>
       </c>
       <c r="N38" t="n">
         <v>1087.002847262015</v>
       </c>
       <c r="O38" t="n">
-        <v>1319.61547128746</v>
+        <v>1514.053796079412</v>
       </c>
       <c r="P38" t="n">
-        <v>1681.884650176518</v>
+        <v>1674.908906094337</v>
       </c>
       <c r="Q38" t="n">
-        <v>1725.458379060192</v>
+        <v>1718.482634978011</v>
       </c>
       <c r="R38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="S38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="T38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="U38" t="n">
-        <v>1694.752359935323</v>
+        <v>1694.752359935322</v>
       </c>
       <c r="V38" t="n">
-        <v>1586.827539686669</v>
+        <v>1586.827539686668</v>
       </c>
       <c r="W38" t="n">
-        <v>1457.196951511472</v>
+        <v>1457.196951511471</v>
       </c>
       <c r="X38" t="n">
-        <v>1306.869260345309</v>
+        <v>1306.869260345308</v>
       </c>
       <c r="Y38" t="n">
-        <v>1139.867995464414</v>
+        <v>1139.867995464413</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>357.8966065235821</v>
+        <v>294.2024074663584</v>
       </c>
       <c r="C39" t="n">
-        <v>183.4435772424551</v>
+        <v>294.2024074663584</v>
       </c>
       <c r="D39" t="n">
-        <v>34.50916758120384</v>
+        <v>145.2679978051071</v>
       </c>
       <c r="E39" t="n">
-        <v>34.50916758120384</v>
+        <v>145.2679978051071</v>
       </c>
       <c r="F39" t="n">
-        <v>34.50916758120384</v>
+        <v>145.2679978051071</v>
       </c>
       <c r="G39" t="n">
-        <v>34.50916758120384</v>
+        <v>145.2679978051071</v>
       </c>
       <c r="H39" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="I39" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="J39" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="K39" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="L39" t="n">
-        <v>276.3720526656036</v>
+        <v>321.988906619312</v>
       </c>
       <c r="M39" t="n">
-        <v>663.8265702200904</v>
+        <v>663.8265702200895</v>
       </c>
       <c r="N39" t="n">
         <v>1077.242869334802</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.022337343821</v>
+        <v>1389.02233734382</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.249779707096</v>
+        <v>1622.249779707095</v>
       </c>
       <c r="Q39" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="R39" t="n">
-        <v>1641.06972281777</v>
+        <v>1641.069722817769</v>
       </c>
       <c r="S39" t="n">
-        <v>1472.672652217427</v>
+        <v>1472.672652217426</v>
       </c>
       <c r="T39" t="n">
-        <v>1271.575462950247</v>
+        <v>1271.575462950246</v>
       </c>
       <c r="U39" t="n">
-        <v>1043.369626058356</v>
+        <v>1043.369626058355</v>
       </c>
       <c r="V39" t="n">
-        <v>988.1095990368055</v>
+        <v>808.2175178266123</v>
       </c>
       <c r="W39" t="n">
-        <v>733.872242308604</v>
+        <v>553.9801610984107</v>
       </c>
       <c r="X39" t="n">
-        <v>733.872242308604</v>
+        <v>553.9801610984107</v>
       </c>
       <c r="Y39" t="n">
-        <v>526.1119435436501</v>
+        <v>346.2198623334568</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="C40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="D40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="E40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="F40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="G40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="H40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="I40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="J40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="K40" t="n">
-        <v>38.26424616633818</v>
+        <v>38.26424616633817</v>
       </c>
       <c r="L40" t="n">
-        <v>98.59588852996436</v>
+        <v>98.59588852996433</v>
       </c>
       <c r="M40" t="n">
         <v>172.5962693764614</v>
@@ -7345,37 +7345,37 @@
         <v>250.2717029872656</v>
       </c>
       <c r="O40" t="n">
-        <v>306.0012425455927</v>
+        <v>306.0012425455926</v>
       </c>
       <c r="P40" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843205</v>
       </c>
       <c r="Q40" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843205</v>
       </c>
       <c r="R40" t="n">
-        <v>209.3887309482855</v>
+        <v>330.1668089843205</v>
       </c>
       <c r="S40" t="n">
-        <v>209.3887309482855</v>
+        <v>330.1668089843205</v>
       </c>
       <c r="T40" t="n">
-        <v>203.2468895956989</v>
+        <v>324.0249676317339</v>
       </c>
       <c r="U40" t="n">
-        <v>137.1861754373184</v>
+        <v>257.9642534733534</v>
       </c>
       <c r="V40" t="n">
         <v>105.6397543263483</v>
       </c>
       <c r="W40" t="n">
-        <v>39.36065138430441</v>
+        <v>39.3606513843044</v>
       </c>
       <c r="X40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.127662321285</v>
+        <v>1091.127662321284</v>
       </c>
       <c r="C41" t="n">
-        <v>926.992624360227</v>
+        <v>926.9926243602267</v>
       </c>
       <c r="D41" t="n">
-        <v>773.5544047328306</v>
+        <v>773.5544047328304</v>
       </c>
       <c r="E41" t="n">
         <v>592.5936311139403</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4352053036869</v>
+        <v>386.4352053036871</v>
       </c>
       <c r="G41" t="n">
-        <v>172.2701154577602</v>
+        <v>172.2701154577601</v>
       </c>
       <c r="H41" t="n">
         <v>39.36707871390413</v>
@@ -7409,7 +7409,7 @@
         <v>39.36707871390413</v>
       </c>
       <c r="J41" t="n">
-        <v>69.55771862446539</v>
+        <v>69.55771862446538</v>
       </c>
       <c r="K41" t="n">
         <v>235.5504659820356</v>
@@ -7418,16 +7418,16 @@
         <v>493.7557747040968</v>
       </c>
       <c r="M41" t="n">
-        <v>797.6654769670989</v>
+        <v>797.6654769670988</v>
       </c>
       <c r="N41" t="n">
         <v>1284.833076051662</v>
       </c>
       <c r="O41" t="n">
-        <v>1563.173684648943</v>
+        <v>1517.445700077108</v>
       </c>
       <c r="P41" t="n">
-        <v>1724.028794663867</v>
+        <v>1879.052222239698</v>
       </c>
       <c r="Q41" t="n">
         <v>1968.353935695206</v>
@@ -7445,13 +7445,13 @@
         <v>1901.026740339212</v>
       </c>
       <c r="V41" t="n">
-        <v>1774.791331974996</v>
+        <v>1774.791331974995</v>
       </c>
       <c r="W41" t="n">
-        <v>1626.850155684236</v>
+        <v>1626.850155684235</v>
       </c>
       <c r="X41" t="n">
-        <v>1458.21187640251</v>
+        <v>1458.211876402509</v>
       </c>
       <c r="Y41" t="n">
         <v>1272.900023406052</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.3546659681462</v>
+        <v>501.2150662235207</v>
       </c>
       <c r="C42" t="n">
-        <v>185.9016366870192</v>
+        <v>326.7620369423937</v>
       </c>
       <c r="D42" t="n">
-        <v>185.9016366870192</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="E42" t="n">
-        <v>185.9016366870192</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="F42" t="n">
-        <v>39.36707871390413</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="G42" t="n">
         <v>39.36707871390413</v>
@@ -7488,7 +7488,7 @@
         <v>39.36707871390413</v>
       </c>
       <c r="J42" t="n">
-        <v>63.65503733504241</v>
+        <v>63.65503733504244</v>
       </c>
       <c r="K42" t="n">
         <v>231.7878702625096</v>
@@ -7512,28 +7512,28 @@
         <v>1968.353935695206</v>
       </c>
       <c r="R42" t="n">
-        <v>1883.965279452784</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.568208852441</v>
+        <v>1799.956865094863</v>
       </c>
       <c r="T42" t="n">
-        <v>1514.471019585261</v>
+        <v>1598.859675827683</v>
       </c>
       <c r="U42" t="n">
-        <v>1286.26518269337</v>
+        <v>1370.653838935792</v>
       </c>
       <c r="V42" t="n">
-        <v>1051.113074461627</v>
+        <v>1135.50173070405</v>
       </c>
       <c r="W42" t="n">
-        <v>796.8757177334257</v>
+        <v>881.264373975848</v>
       </c>
       <c r="X42" t="n">
-        <v>589.0242175278929</v>
+        <v>673.4128737703152</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.5700029882141</v>
+        <v>669.4304032435887</v>
       </c>
     </row>
     <row r="43">
@@ -7570,13 +7570,13 @@
         <v>39.36707871390413</v>
       </c>
       <c r="K43" t="n">
-        <v>43.12215729903847</v>
+        <v>43.12215729903846</v>
       </c>
       <c r="L43" t="n">
         <v>103.4537996626646</v>
       </c>
       <c r="M43" t="n">
-        <v>177.4541805091617</v>
+        <v>177.4541805091616</v>
       </c>
       <c r="N43" t="n">
         <v>255.1296141199659</v>
@@ -7588,28 +7588,28 @@
         <v>335.0247201170209</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.2677320883809</v>
+        <v>335.0247201170209</v>
       </c>
       <c r="R43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883801</v>
       </c>
       <c r="S43" t="n">
-        <v>321.7646828229754</v>
+        <v>321.7646828229747</v>
       </c>
       <c r="T43" t="n">
-        <v>297.3122533548261</v>
+        <v>297.3122533548255</v>
       </c>
       <c r="U43" t="n">
-        <v>212.9409510808829</v>
+        <v>212.9409510808825</v>
       </c>
       <c r="V43" t="n">
-        <v>163.0839418543501</v>
+        <v>163.0839418543497</v>
       </c>
       <c r="W43" t="n">
-        <v>78.49425079674349</v>
+        <v>78.49425079674326</v>
       </c>
       <c r="X43" t="n">
-        <v>55.33217887808019</v>
+        <v>55.33217887808008</v>
       </c>
       <c r="Y43" t="n">
         <v>39.36707871390413</v>
@@ -7625,16 +7625,16 @@
         <v>1091.127662321284</v>
       </c>
       <c r="C44" t="n">
-        <v>926.9926243602267</v>
+        <v>926.9926243602265</v>
       </c>
       <c r="D44" t="n">
-        <v>773.5544047328303</v>
+        <v>773.5544047328302</v>
       </c>
       <c r="E44" t="n">
-        <v>592.5936311139402</v>
+        <v>592.5936311139401</v>
       </c>
       <c r="F44" t="n">
-        <v>386.4352053036868</v>
+        <v>386.4352053036869</v>
       </c>
       <c r="G44" t="n">
         <v>172.2701154577601</v>
@@ -7643,34 +7643,34 @@
         <v>39.36707871390413</v>
       </c>
       <c r="I44" t="n">
-        <v>39.36707871390413</v>
+        <v>50.83444981372098</v>
       </c>
       <c r="J44" t="n">
-        <v>69.55771862446537</v>
+        <v>81.02508972428222</v>
       </c>
       <c r="K44" t="n">
-        <v>235.5504659820356</v>
+        <v>247.0178370818524</v>
       </c>
       <c r="L44" t="n">
-        <v>531.7046647852139</v>
+        <v>705.9745579515786</v>
       </c>
       <c r="M44" t="n">
-        <v>835.6143670482161</v>
+        <v>1009.884260214581</v>
       </c>
       <c r="N44" t="n">
-        <v>1129.809648475832</v>
+        <v>1497.051859299144</v>
       </c>
       <c r="O44" t="n">
-        <v>1362.422272501278</v>
+        <v>1758.821611904621</v>
       </c>
       <c r="P44" t="n">
-        <v>1724.028794663867</v>
+        <v>1919.676721919546</v>
       </c>
       <c r="Q44" t="n">
-        <v>1968.353935695206</v>
+        <v>1963.25045080322</v>
       </c>
       <c r="R44" t="n">
-        <v>1968.353935695206</v>
+        <v>1963.25045080322</v>
       </c>
       <c r="S44" t="n">
         <v>1968.353935695206</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>660.4525212289761</v>
+        <v>362.7545176562824</v>
       </c>
       <c r="C45" t="n">
-        <v>485.9994919478492</v>
+        <v>188.3014883751554</v>
       </c>
       <c r="D45" t="n">
-        <v>337.0650822865979</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="E45" t="n">
-        <v>177.8276272811424</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="F45" t="n">
-        <v>177.8276272811424</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="G45" t="n">
         <v>39.36707871390413</v>
@@ -7725,22 +7725,22 @@
         <v>39.36707871390413</v>
       </c>
       <c r="J45" t="n">
-        <v>63.65503733504249</v>
+        <v>63.65503733504238</v>
       </c>
       <c r="K45" t="n">
-        <v>231.7878702625096</v>
+        <v>231.7878702625094</v>
       </c>
       <c r="L45" t="n">
-        <v>519.2676093006179</v>
+        <v>519.2676093006177</v>
       </c>
       <c r="M45" t="n">
-        <v>906.7221268551045</v>
+        <v>906.7221268551044</v>
       </c>
       <c r="N45" t="n">
         <v>1320.138425969817</v>
       </c>
       <c r="O45" t="n">
-        <v>1631.917893978836</v>
+        <v>1631.917893978835</v>
       </c>
       <c r="P45" t="n">
         <v>1865.14533634211</v>
@@ -7755,22 +7755,22 @@
         <v>1715.568208852441</v>
       </c>
       <c r="T45" t="n">
-        <v>1715.568208852441</v>
+        <v>1514.471019585261</v>
       </c>
       <c r="U45" t="n">
-        <v>1487.36237196055</v>
+        <v>1286.26518269337</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.689534968378</v>
+        <v>1051.113074461627</v>
       </c>
       <c r="W45" t="n">
-        <v>1039.452178240177</v>
+        <v>946.5816536468371</v>
       </c>
       <c r="X45" t="n">
-        <v>1036.428157013998</v>
+        <v>738.7301534413043</v>
       </c>
       <c r="Y45" t="n">
-        <v>828.6678582490442</v>
+        <v>530.9698546763505</v>
       </c>
     </row>
     <row r="46">
@@ -7816,37 +7816,37 @@
         <v>177.4541805091616</v>
       </c>
       <c r="N46" t="n">
-        <v>255.1296141199659</v>
+        <v>259.3726260913251</v>
       </c>
       <c r="O46" t="n">
-        <v>310.8591536782929</v>
+        <v>315.1021656496522</v>
       </c>
       <c r="P46" t="n">
-        <v>335.0247201170208</v>
+        <v>339.2677320883801</v>
       </c>
       <c r="Q46" t="n">
-        <v>339.2677320883806</v>
+        <v>339.2677320883801</v>
       </c>
       <c r="R46" t="n">
-        <v>339.2677320883806</v>
+        <v>339.2677320883801</v>
       </c>
       <c r="S46" t="n">
-        <v>321.7646828229751</v>
+        <v>321.7646828229747</v>
       </c>
       <c r="T46" t="n">
-        <v>297.3122533548259</v>
+        <v>297.3122533548255</v>
       </c>
       <c r="U46" t="n">
-        <v>212.9409510808827</v>
+        <v>212.9409510808825</v>
       </c>
       <c r="V46" t="n">
-        <v>163.0839418543499</v>
+        <v>163.0839418543497</v>
       </c>
       <c r="W46" t="n">
-        <v>78.49425079674337</v>
+        <v>78.49425079674326</v>
       </c>
       <c r="X46" t="n">
-        <v>55.33217887808014</v>
+        <v>55.33217887808008</v>
       </c>
       <c r="Y46" t="n">
         <v>39.36707871390413</v>
@@ -8456,10 +8456,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
@@ -8541,10 +8541,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>140.8504531560417</v>
@@ -8769,7 +8769,7 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K12" t="n">
-        <v>94.63409264139968</v>
+        <v>94.63409264139969</v>
       </c>
       <c r="L12" t="n">
         <v>170.3076720145774</v>
@@ -9006,7 +9006,7 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K15" t="n">
-        <v>94.63409264139968</v>
+        <v>94.63409264139969</v>
       </c>
       <c r="L15" t="n">
         <v>170.3076720145774</v>
@@ -9243,10 +9243,10 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K18" t="n">
-        <v>94.63409264139968</v>
+        <v>184.4849941384858</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3076720145774</v>
+        <v>80.45677051749129</v>
       </c>
       <c r="M18" t="n">
         <v>454.3203189461498</v>
@@ -9480,13 +9480,13 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K21" t="n">
-        <v>94.63409264139968</v>
+        <v>94.63409264139969</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>170.3076720145774</v>
       </c>
       <c r="M21" t="n">
-        <v>253.787645657268</v>
+        <v>454.3203189461498</v>
       </c>
       <c r="N21" t="n">
         <v>441.7336077616981</v>
@@ -9717,13 +9717,13 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K24" t="n">
-        <v>94.63409264139968</v>
+        <v>94.63409264139969</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3076720145774</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.3203189461498</v>
+        <v>253.7876456572681</v>
       </c>
       <c r="N24" t="n">
         <v>441.7336077616981</v>
@@ -10665,10 +10665,10 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K36" t="n">
-        <v>94.63409264139968</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>324.7627150471867</v>
+        <v>154.9315706760098</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10902,13 +10902,13 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K39" t="n">
-        <v>94.63409264139968</v>
+        <v>94.63409264139969</v>
       </c>
       <c r="L39" t="n">
-        <v>324.7627150471881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>419.6274334937278</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15.21095922821269</v>
       </c>
       <c r="C11" t="n">
-        <v>193.7460588482494</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>223.303080436662</v>
@@ -23276,7 +23276,7 @@
         <v>202.973249381957</v>
       </c>
       <c r="I11" t="n">
-        <v>59.81603987441156</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.3511394944481</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>222.6424175176315</v>
       </c>
       <c r="C14" t="n">
-        <v>193.74605884825</v>
+        <v>233.8929305869866</v>
       </c>
       <c r="D14" t="n">
-        <v>223.3030804366621</v>
+        <v>223.303080436662</v>
       </c>
       <c r="E14" t="n">
         <v>250.5504088882409</v>
@@ -23510,10 +23510,10 @@
         <v>283.4226819530071</v>
       </c>
       <c r="H14" t="n">
-        <v>202.9732493819571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.81603987441162</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84914.70873765006</v>
+        <v>84914.70873765009</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86337.88518108659</v>
+        <v>86337.88518108652</v>
       </c>
       <c r="M3" t="n">
-        <v>85120.19345298684</v>
+        <v>85120.19345298696</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35296.30877041436</v>
+        <v>35296.30877041449</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>414471.3742669506</v>
       </c>
       <c r="E4" t="n">
+        <v>276569.4465874889</v>
+      </c>
+      <c r="F4" t="n">
         <v>276569.446587489</v>
-      </c>
-      <c r="F4" t="n">
-        <v>276569.4465874889</v>
       </c>
       <c r="G4" t="n">
         <v>343996.143226845</v>
@@ -26439,22 +26439,22 @@
         <v>343996.143226845</v>
       </c>
       <c r="J4" t="n">
+        <v>341020.4687584897</v>
+      </c>
+      <c r="K4" t="n">
         <v>341020.4687584896</v>
       </c>
-      <c r="K4" t="n">
-        <v>341020.4687584897</v>
-      </c>
       <c r="L4" t="n">
-        <v>340985.8804806022</v>
+        <v>340985.8804806021</v>
       </c>
       <c r="M4" t="n">
-        <v>342195.2541191041</v>
+        <v>342195.2541191042</v>
       </c>
       <c r="N4" t="n">
         <v>342195.2541191041</v>
       </c>
       <c r="O4" t="n">
-        <v>340068.2278760104</v>
+        <v>340068.2278760105</v>
       </c>
       <c r="P4" t="n">
         <v>340068.2278760104</v>
@@ -26491,19 +26491,19 @@
         <v>45783.23110530664</v>
       </c>
       <c r="J5" t="n">
+        <v>57363.43949289199</v>
+      </c>
+      <c r="K5" t="n">
         <v>57363.43949289198</v>
-      </c>
-      <c r="K5" t="n">
-        <v>57363.43949289197</v>
       </c>
       <c r="L5" t="n">
         <v>57094.93218732499</v>
       </c>
       <c r="M5" t="n">
-        <v>47510.25837157163</v>
+        <v>47510.25837157166</v>
       </c>
       <c r="N5" t="n">
-        <v>47510.25837157165</v>
+        <v>47510.25837157164</v>
       </c>
       <c r="O5" t="n">
         <v>49678.3115284595</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448399.9986129589</v>
+        <v>-448404.412190827</v>
       </c>
       <c r="C6" t="n">
-        <v>-448399.9986129589</v>
+        <v>-448404.4121908271</v>
       </c>
       <c r="D6" t="n">
-        <v>-450652.9439367945</v>
+        <v>-450654.6208484574</v>
       </c>
       <c r="E6" t="n">
-        <v>-629877.0515536777</v>
+        <v>-630173.4237668617</v>
       </c>
       <c r="F6" t="n">
-        <v>-313429.3093817136</v>
+        <v>-313725.6815948978</v>
       </c>
       <c r="G6" t="n">
         <v>-474694.0830698017</v>
@@ -26540,28 +26540,28 @@
         <v>-389779.3743321516</v>
       </c>
       <c r="I6" t="n">
-        <v>-389779.3743321516</v>
+        <v>-389779.3743321517</v>
       </c>
       <c r="J6" t="n">
-        <v>-515021.6738954467</v>
+        <v>-515021.6738954468</v>
       </c>
       <c r="K6" t="n">
         <v>-398383.9082513816</v>
       </c>
       <c r="L6" t="n">
-        <v>-484418.6978490137</v>
+        <v>-484418.6978490136</v>
       </c>
       <c r="M6" t="n">
-        <v>-474825.7059436626</v>
+        <v>-474825.7059436628</v>
       </c>
       <c r="N6" t="n">
         <v>-389705.5124906758</v>
       </c>
       <c r="O6" t="n">
-        <v>-425042.8481748842</v>
+        <v>-425042.8481748844</v>
       </c>
       <c r="P6" t="n">
-        <v>-389746.5394044698</v>
+        <v>-389746.5394044699</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="G2" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="H2" t="n">
         <v>237.5233471060834</v>
@@ -26707,13 +26707,13 @@
         <v>237.5233471060834</v>
       </c>
       <c r="J2" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="K2" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="L2" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M2" t="n">
         <v>220.9066864239676</v>
@@ -26722,10 +26722,10 @@
         <v>220.9066864239676</v>
       </c>
       <c r="O2" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="P2" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
     </row>
     <row r="3">
@@ -26811,19 +26811,19 @@
         <v>379.9834547461365</v>
       </c>
       <c r="J4" t="n">
+        <v>691.2947622329059</v>
+      </c>
+      <c r="K4" t="n">
         <v>691.2947622329058</v>
       </c>
-      <c r="K4" t="n">
-        <v>691.2947622329057</v>
-      </c>
       <c r="L4" t="n">
-        <v>684.4187164911942</v>
+        <v>684.4187164911943</v>
       </c>
       <c r="M4" t="n">
-        <v>431.3645947650477</v>
+        <v>431.3645947650482</v>
       </c>
       <c r="N4" t="n">
-        <v>431.364594765048</v>
+        <v>431.3645947650478</v>
       </c>
       <c r="O4" t="n">
         <v>492.0884839238016</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.98128738499605</v>
+        <v>43.98128738499602</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9223564763582</v>
+        <v>107.9223564763581</v>
       </c>
       <c r="M2" t="n">
-        <v>69.00304256261339</v>
+        <v>69.00304256261342</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.85380515058895</v>
+        <v>25.85380515058904</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.3113074867692</v>
+        <v>311.3113074867694</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.0532872782786</v>
+        <v>120.053287278279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.72388915875354</v>
+        <v>60.72388915875376</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.98128738499605</v>
+        <v>43.98128738499602</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.8577959217691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27904,7 +27904,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0394284748319</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.4767625605679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>131.2870960739112</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,25 +28053,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>217.9601769476728</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>19.85181174916576</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>103.3965814291639</v>
       </c>
     </row>
     <row r="13">
@@ -28269,16 +28269,16 @@
         <v>131.3799611840209</v>
       </c>
       <c r="J13" t="n">
-        <v>77.49939401566411</v>
+        <v>124.9227880175221</v>
       </c>
       <c r="K13" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>131.3799611840209</v>
       </c>
       <c r="M13" t="n">
-        <v>47.42339400185796</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="N13" t="n">
         <v>131.3799611840209</v>
@@ -28409,7 +28409,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="E15" t="n">
         <v>131.3799611840209</v>
@@ -28424,7 +28424,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I15" t="n">
-        <v>52.20072440835111</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28469,10 +28469,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.3799611840209</v>
+        <v>103.3965814291638</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,10 +28506,10 @@
         <v>131.3799611840209</v>
       </c>
       <c r="J16" t="n">
-        <v>77.49939401566411</v>
+        <v>124.9227880175221</v>
       </c>
       <c r="K16" t="n">
-        <v>47.42339400185945</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>131.3799611840209</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="C17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="D17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="E17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="F17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="G17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="H17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="I17" t="n">
         <v>191.1960010584325</v>
@@ -28618,19 +28618,19 @@
         <v>220.9066864239676</v>
       </c>
       <c r="U17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="V17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="W17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H18" t="n">
-        <v>24.92859735169637</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I18" t="n">
-        <v>80.18410416320771</v>
+        <v>60.30742981970853</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,16 +28694,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237785229719</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28764,28 +28764,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.37787329201959</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R19" t="n">
         <v>167.2069181798455</v>
       </c>
       <c r="S19" t="n">
-        <v>39.80355175615929</v>
+        <v>220.1072229623119</v>
       </c>
       <c r="T19" t="n">
         <v>226.9871093630283</v>
       </c>
       <c r="U19" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="V19" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.40598418288431</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>164.677083209111</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28898,7 +28898,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I21" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S21" t="n">
-        <v>34.56905129119585</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.0862173745079</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.37787329201959</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R22" t="n">
         <v>167.2069181798455</v>
@@ -29013,13 +29013,13 @@
         <v>226.9871093630283</v>
       </c>
       <c r="U22" t="n">
-        <v>57.21967589993076</v>
+        <v>237.5233471060834</v>
       </c>
       <c r="V22" t="n">
         <v>237.5233471060834</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5233471060834</v>
+        <v>57.21967589993091</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29056,7 +29056,7 @@
         <v>237.5233471060834</v>
       </c>
       <c r="I23" t="n">
-        <v>191.1960010584334</v>
+        <v>191.1960010584325</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>237.5233471060834</v>
       </c>
       <c r="X23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060843</v>
       </c>
       <c r="Y23" t="n">
         <v>237.5233471060834</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -29123,10 +29123,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0759430815659</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>118.5257995346798</v>
       </c>
       <c r="U24" t="n">
-        <v>188.2595889895667</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.90618226780424</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R25" t="n">
         <v>167.2069181798455</v>
@@ -29259,7 +29259,7 @@
         <v>237.5233471060834</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>45.40598418288462</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="C26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="D26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="E26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="F26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="H26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="I26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="J26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="K26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="L26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="M26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="N26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="O26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="P26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070596</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="R26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="S26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="T26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="U26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="V26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="W26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="X26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
     </row>
     <row r="27">
@@ -29354,25 +29354,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>150.1246733070586</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H27" t="n">
         <v>109.6512419216643</v>
       </c>
       <c r="I27" t="n">
-        <v>70.36413116202112</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>8.284218137981071</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>150.1246733070586</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="C28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="D28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="E28" t="n">
-        <v>150.1246733070586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="H28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="I28" t="n">
-        <v>150.1246733070586</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J28" t="n">
-        <v>150.1246733070586</v>
+        <v>77.49939401566411</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>17.28727289691261</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>6.928889653295123</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.1246733070586</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="S28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="T28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="U28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="V28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="W28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="X28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.1246733070586</v>
+        <v>150.1246733070585</v>
       </c>
     </row>
     <row r="29">
@@ -29603,10 +29603,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H30" t="n">
-        <v>18.66235241173459</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I30" t="n">
         <v>80.18410416320771</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.5447696799981</v>
+        <v>5.604610395561238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29688,28 +29688,28 @@
         <v>150.1246733070585</v>
       </c>
       <c r="I31" t="n">
-        <v>148.704406723306</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="J31" t="n">
-        <v>77.49939401566411</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6.928889653295979</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>80.9744355284428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>150.1246733070585</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="D32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="E32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="F32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="G32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="H32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="J32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="K32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="L32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M32" t="n">
-        <v>108.6665459358152</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="N32" t="n">
-        <v>151.9036438613542</v>
+        <v>108.6665459358167</v>
       </c>
       <c r="O32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="P32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="R32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="S32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="V32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="W32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
     </row>
     <row r="33">
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>151.9036438613542</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>151.9036438613542</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.046669286969745</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0759430815659</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6512419216643</v>
+        <v>109.3220580373794</v>
       </c>
       <c r="I33" t="n">
         <v>80.18410416320771</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="D34" t="n">
-        <v>151.9036438613542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>151.9036438613542</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="G34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="H34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="I34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="J34" t="n">
         <v>77.49939401566411</v>
       </c>
       <c r="K34" t="n">
-        <v>45.32028471511771</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>54.07813677304655</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="R34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="S34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="W34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
     </row>
     <row r="35">
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>77.71441497788999</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>77.71441497789226</v>
       </c>
       <c r="R35" t="n">
         <v>220.9066864239676</v>
@@ -30065,13 +30065,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30080,10 +30080,10 @@
         <v>137.0759430815659</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>21.85028106515989</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>67.7467091539161</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.37787329201959</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R37" t="n">
         <v>167.2069181798455</v>
@@ -30198,7 +30198,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="U37" t="n">
-        <v>101.3363891682928</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="V37" t="n">
         <v>220.9066864239676</v>
@@ -30207,7 +30207,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="X37" t="n">
-        <v>220.9066864239676</v>
+        <v>101.3363891682928</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30259,16 +30259,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>196.4023482746989</v>
       </c>
       <c r="P38" t="n">
-        <v>203.448554418316</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.4550644623804</v>
+        <v>125.5012706059968</v>
       </c>
       <c r="S38" t="n">
         <v>197.6241689451301</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>115.03590333144</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>137.0759430815659</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>80.18410416320771</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>178.0931603980905</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.37787329201959</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R40" t="n">
-        <v>47.63662092417067</v>
+        <v>167.2069181798455</v>
       </c>
       <c r="S40" t="n">
         <v>220.1072229623119</v>
@@ -30438,7 +30438,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="V40" t="n">
-        <v>220.9066864239676</v>
+        <v>101.3363891682929</v>
       </c>
       <c r="W40" t="n">
         <v>220.9066864239676</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="C41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="D41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="E41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="F41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="G41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="H41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="I41" t="n">
         <v>191.1960010584325</v>
@@ -30496,13 +30496,13 @@
         <v>194.9215329868156</v>
       </c>
       <c r="O41" t="n">
-        <v>46.18988340589362</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.7792041895605</v>
+        <v>46.18988340589325</v>
       </c>
       <c r="R41" t="n">
         <v>118.4550644623804</v>
@@ -30511,22 +30511,22 @@
         <v>197.6241689451301</v>
       </c>
       <c r="T41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="U41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="V41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="W41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="X41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
     </row>
     <row r="42">
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6512419216643</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>145.8330233830224</v>
+        <v>201.7400499558451</v>
       </c>
     </row>
     <row r="43">
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.66374397016098</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R43" t="n">
-        <v>167.2069181798455</v>
+        <v>171.4927888579861</v>
       </c>
       <c r="S43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="T43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="U43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="V43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="W43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="X43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="C44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="D44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="E44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="F44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="G44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="H44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1960010584325</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,46 +30724,46 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.33221220314863</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>194.9215329868156</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>29.45164503033459</v>
       </c>
       <c r="P44" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.4550644623804</v>
       </c>
       <c r="S44" t="n">
-        <v>197.6241689451301</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="T44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="U44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="V44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="W44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="X44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
     </row>
     <row r="45">
@@ -30782,13 +30782,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H45" t="n">
         <v>109.6512419216643</v>
@@ -30827,19 +30827,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>41.06447852717562</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>148.2088765542773</v>
       </c>
       <c r="X45" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.285870678140668</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.66374397016077</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R46" t="n">
         <v>167.2069181798455</v>
       </c>
       <c r="S46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="T46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="U46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="V46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="W46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="X46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.7792041895605</v>
+        <v>202.7792041895606</v>
       </c>
     </row>
   </sheetData>
@@ -31753,13 +31753,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H11" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I11" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J11" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K11" t="n">
         <v>63.61388024913926</v>
@@ -31768,22 +31768,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M11" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N11" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O11" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P11" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q11" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R11" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S11" t="n">
         <v>11.39590064111523</v>
@@ -31792,7 +31792,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H12" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I12" t="n">
         <v>9.212528688207367</v>
@@ -31841,13 +31841,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K12" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L12" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M12" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N12" t="n">
         <v>69.5915590677718</v>
@@ -31856,7 +31856,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P12" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q12" t="n">
         <v>34.15559680784551</v>
@@ -31865,7 +31865,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S12" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T12" t="n">
         <v>1.078511320313703</v>
@@ -31911,13 +31911,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H13" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I13" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J13" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K13" t="n">
         <v>26.06250049773572</v>
@@ -31929,10 +31929,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N13" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O13" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P13" t="n">
         <v>27.13110380452864</v>
@@ -31947,10 +31947,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,13 +31990,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H14" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I14" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J14" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K14" t="n">
         <v>63.61388024913926</v>
@@ -32005,22 +32005,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M14" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N14" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O14" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P14" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q14" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R14" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S14" t="n">
         <v>11.39590064111523</v>
@@ -32029,7 +32029,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H15" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I15" t="n">
         <v>9.212528688207367</v>
@@ -32078,13 +32078,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K15" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L15" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M15" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N15" t="n">
         <v>69.5915590677718</v>
@@ -32093,7 +32093,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P15" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q15" t="n">
         <v>34.15559680784551</v>
@@ -32102,7 +32102,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S15" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T15" t="n">
         <v>1.078511320313703</v>
@@ -32148,13 +32148,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H16" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I16" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J16" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K16" t="n">
         <v>26.06250049773572</v>
@@ -32166,10 +32166,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N16" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O16" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P16" t="n">
         <v>27.13110380452864</v>
@@ -32184,10 +32184,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,13 +32227,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H17" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I17" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J17" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K17" t="n">
         <v>63.61388024913926</v>
@@ -32242,22 +32242,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M17" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N17" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O17" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P17" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q17" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R17" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S17" t="n">
         <v>11.39590064111523</v>
@@ -32266,7 +32266,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H18" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I18" t="n">
         <v>9.212528688207367</v>
@@ -32315,13 +32315,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K18" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L18" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M18" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N18" t="n">
         <v>69.5915590677718</v>
@@ -32330,7 +32330,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P18" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q18" t="n">
         <v>34.15559680784551</v>
@@ -32339,7 +32339,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S18" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T18" t="n">
         <v>1.078511320313703</v>
@@ -32385,13 +32385,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I19" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J19" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K19" t="n">
         <v>26.06250049773572</v>
@@ -32403,10 +32403,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N19" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O19" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P19" t="n">
         <v>27.13110380452864</v>
@@ -32421,10 +32421,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,13 +32464,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H20" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I20" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J20" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K20" t="n">
         <v>63.61388024913926</v>
@@ -32479,22 +32479,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M20" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N20" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O20" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P20" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q20" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R20" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S20" t="n">
         <v>11.39590064111523</v>
@@ -32503,7 +32503,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H21" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I21" t="n">
         <v>9.212528688207367</v>
@@ -32552,13 +32552,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K21" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L21" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M21" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N21" t="n">
         <v>69.5915590677718</v>
@@ -32567,7 +32567,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P21" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q21" t="n">
         <v>34.15559680784551</v>
@@ -32576,7 +32576,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S21" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T21" t="n">
         <v>1.078511320313703</v>
@@ -32622,13 +32622,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H22" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I22" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J22" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K22" t="n">
         <v>26.06250049773572</v>
@@ -32640,10 +32640,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N22" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O22" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P22" t="n">
         <v>27.13110380452864</v>
@@ -32658,10 +32658,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,13 +32701,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H23" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I23" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J23" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K23" t="n">
         <v>63.61388024913926</v>
@@ -32716,22 +32716,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M23" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N23" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O23" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P23" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q23" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R23" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S23" t="n">
         <v>11.39590064111523</v>
@@ -32740,7 +32740,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H24" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I24" t="n">
         <v>9.212528688207367</v>
@@ -32789,13 +32789,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K24" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L24" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M24" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N24" t="n">
         <v>69.5915590677718</v>
@@ -32804,7 +32804,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P24" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q24" t="n">
         <v>34.15559680784551</v>
@@ -32813,7 +32813,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S24" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T24" t="n">
         <v>1.078511320313703</v>
@@ -32859,13 +32859,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H25" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I25" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J25" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K25" t="n">
         <v>26.06250049773572</v>
@@ -32877,10 +32877,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N25" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O25" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P25" t="n">
         <v>27.13110380452864</v>
@@ -32895,10 +32895,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,13 +32938,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H26" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I26" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J26" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K26" t="n">
         <v>63.61388024913926</v>
@@ -32953,22 +32953,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M26" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N26" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O26" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P26" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q26" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R26" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S26" t="n">
         <v>11.39590064111523</v>
@@ -32977,7 +32977,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H27" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I27" t="n">
         <v>9.212528688207367</v>
@@ -33026,13 +33026,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K27" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L27" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M27" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N27" t="n">
         <v>69.5915590677718</v>
@@ -33041,7 +33041,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P27" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q27" t="n">
         <v>34.15559680784551</v>
@@ -33050,7 +33050,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S27" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T27" t="n">
         <v>1.078511320313703</v>
@@ -33096,13 +33096,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H28" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I28" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J28" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K28" t="n">
         <v>26.06250049773572</v>
@@ -33114,10 +33114,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N28" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O28" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P28" t="n">
         <v>27.13110380452864</v>
@@ -33132,10 +33132,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,13 +33175,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H29" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I29" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J29" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K29" t="n">
         <v>63.61388024913926</v>
@@ -33190,22 +33190,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M29" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N29" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O29" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P29" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q29" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R29" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S29" t="n">
         <v>11.39590064111523</v>
@@ -33214,7 +33214,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H30" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I30" t="n">
         <v>9.212528688207367</v>
@@ -33263,13 +33263,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K30" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L30" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M30" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N30" t="n">
         <v>69.5915590677718</v>
@@ -33278,7 +33278,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P30" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q30" t="n">
         <v>34.15559680784551</v>
@@ -33287,7 +33287,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S30" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T30" t="n">
         <v>1.078511320313703</v>
@@ -33333,13 +33333,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H31" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I31" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J31" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K31" t="n">
         <v>26.06250049773572</v>
@@ -33351,10 +33351,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N31" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O31" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P31" t="n">
         <v>27.13110380452864</v>
@@ -33369,10 +33369,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,13 +33412,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H32" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I32" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J32" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K32" t="n">
         <v>63.61388024913926</v>
@@ -33427,22 +33427,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M32" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N32" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O32" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P32" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q32" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R32" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S32" t="n">
         <v>11.39590064111523</v>
@@ -33451,7 +33451,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H33" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I33" t="n">
         <v>9.212528688207367</v>
@@ -33500,13 +33500,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K33" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L33" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M33" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N33" t="n">
         <v>69.5915590677718</v>
@@ -33515,7 +33515,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P33" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q33" t="n">
         <v>34.15559680784551</v>
@@ -33524,7 +33524,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S33" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T33" t="n">
         <v>1.078511320313703</v>
@@ -33570,13 +33570,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H34" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I34" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J34" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K34" t="n">
         <v>26.06250049773572</v>
@@ -33588,10 +33588,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N34" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O34" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P34" t="n">
         <v>27.13110380452864</v>
@@ -33606,10 +33606,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,13 +33649,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H35" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I35" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J35" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K35" t="n">
         <v>63.61388024913926</v>
@@ -33664,22 +33664,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M35" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N35" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O35" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P35" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q35" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R35" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S35" t="n">
         <v>11.39590064111523</v>
@@ -33688,7 +33688,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H36" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I36" t="n">
         <v>9.212528688207367</v>
@@ -33737,13 +33737,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K36" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L36" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M36" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N36" t="n">
         <v>69.5915590677718</v>
@@ -33752,7 +33752,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P36" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q36" t="n">
         <v>34.15559680784551</v>
@@ -33761,7 +33761,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S36" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T36" t="n">
         <v>1.078511320313703</v>
@@ -33807,13 +33807,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H37" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I37" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J37" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K37" t="n">
         <v>26.06250049773572</v>
@@ -33825,10 +33825,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N37" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O37" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P37" t="n">
         <v>27.13110380452864</v>
@@ -33843,10 +33843,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,13 +33886,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H38" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I38" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J38" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K38" t="n">
         <v>63.61388024913926</v>
@@ -33901,22 +33901,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M38" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N38" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O38" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P38" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q38" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R38" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S38" t="n">
         <v>11.39590064111523</v>
@@ -33925,7 +33925,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H39" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I39" t="n">
         <v>9.212528688207367</v>
@@ -33974,13 +33974,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K39" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L39" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M39" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N39" t="n">
         <v>69.5915590677718</v>
@@ -33989,7 +33989,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P39" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q39" t="n">
         <v>34.15559680784551</v>
@@ -33998,7 +33998,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S39" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T39" t="n">
         <v>1.078511320313703</v>
@@ -34044,13 +34044,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H40" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I40" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J40" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K40" t="n">
         <v>26.06250049773572</v>
@@ -34062,10 +34062,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N40" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O40" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P40" t="n">
         <v>27.13110380452864</v>
@@ -34080,10 +34080,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,13 +34123,13 @@
         <v>0.5000943781070858</v>
       </c>
       <c r="H41" t="n">
-        <v>5.121591549789194</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I41" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J41" t="n">
-        <v>42.44488522386632</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K41" t="n">
         <v>63.61388024913926</v>
@@ -34138,22 +34138,22 @@
         <v>78.91864357313401</v>
       </c>
       <c r="M41" t="n">
-        <v>87.81219696979589</v>
+        <v>87.81219696979588</v>
       </c>
       <c r="N41" t="n">
         <v>89.23309012159265</v>
       </c>
       <c r="O41" t="n">
-        <v>84.26027664929032</v>
+        <v>84.2602766492903</v>
       </c>
       <c r="P41" t="n">
-        <v>71.91419668977163</v>
+        <v>71.91419668977161</v>
       </c>
       <c r="Q41" t="n">
         <v>54.0045667738116</v>
       </c>
       <c r="R41" t="n">
-        <v>31.41405347876926</v>
+        <v>31.41405347876925</v>
       </c>
       <c r="S41" t="n">
         <v>11.39590064111523</v>
@@ -34162,7 +34162,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04000755024856686</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.267574081644749</v>
+        <v>0.2675740816447489</v>
       </c>
       <c r="H42" t="n">
-        <v>2.584202314832182</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I42" t="n">
         <v>9.212528688207367</v>
@@ -34211,13 +34211,13 @@
         <v>25.27988286276113</v>
       </c>
       <c r="K42" t="n">
-        <v>43.20734633295932</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L42" t="n">
-        <v>58.0976092623829</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M42" t="n">
-        <v>67.79716972200504</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N42" t="n">
         <v>69.5915590677718</v>
@@ -34226,7 +34226,7 @@
         <v>63.66268073238025</v>
       </c>
       <c r="P42" t="n">
-        <v>51.09491388881177</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q42" t="n">
         <v>34.15559680784551</v>
@@ -34235,7 +34235,7 @@
         <v>16.61306447264504</v>
       </c>
       <c r="S42" t="n">
-        <v>4.970071209497856</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T42" t="n">
         <v>1.078511320313703</v>
@@ -34281,13 +34281,13 @@
         <v>0.2243251216550023</v>
       </c>
       <c r="H43" t="n">
-        <v>1.99445426344175</v>
+        <v>1.994454263441749</v>
       </c>
       <c r="I43" t="n">
-        <v>6.746068203952255</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J43" t="n">
-        <v>15.85978610100867</v>
+        <v>15.85978610100866</v>
       </c>
       <c r="K43" t="n">
         <v>26.06250049773572</v>
@@ -34299,10 +34299,10 @@
         <v>35.1639824790655</v>
       </c>
       <c r="N43" t="n">
-        <v>34.32786157107871</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O43" t="n">
-        <v>31.70733628629071</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P43" t="n">
         <v>27.13110380452864</v>
@@ -34317,10 +34317,10 @@
         <v>3.909375074660358</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9584800652531916</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.0122359157266365</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,28 +34357,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5000943781070857</v>
+        <v>0.5000943781070858</v>
       </c>
       <c r="H44" t="n">
-        <v>5.121591549789192</v>
+        <v>5.121591549789193</v>
       </c>
       <c r="I44" t="n">
         <v>19.27988851197344</v>
       </c>
       <c r="J44" t="n">
-        <v>42.4448852238663</v>
+        <v>42.44488522386631</v>
       </c>
       <c r="K44" t="n">
-        <v>63.61388024913925</v>
+        <v>63.61388024913926</v>
       </c>
       <c r="L44" t="n">
-        <v>78.91864357313399</v>
+        <v>78.91864357313401</v>
       </c>
       <c r="M44" t="n">
         <v>87.81219696979588</v>
       </c>
       <c r="N44" t="n">
-        <v>89.23309012159264</v>
+        <v>89.23309012159265</v>
       </c>
       <c r="O44" t="n">
         <v>84.2602766492903</v>
@@ -34387,7 +34387,7 @@
         <v>71.91419668977161</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.00456677381159</v>
+        <v>54.0045667738116</v>
       </c>
       <c r="R44" t="n">
         <v>31.41405347876925</v>
@@ -34399,7 +34399,7 @@
         <v>2.189163140163769</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04000755024856684</v>
+        <v>0.04000755024856685</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>2.584202314832181</v>
       </c>
       <c r="I45" t="n">
-        <v>9.212528688207366</v>
+        <v>9.212528688207367</v>
       </c>
       <c r="J45" t="n">
         <v>25.27988286276113</v>
       </c>
       <c r="K45" t="n">
-        <v>43.2073463329593</v>
+        <v>43.20734633295931</v>
       </c>
       <c r="L45" t="n">
-        <v>58.09760926238288</v>
+        <v>58.09760926238289</v>
       </c>
       <c r="M45" t="n">
-        <v>67.79716972200501</v>
+        <v>67.79716972200502</v>
       </c>
       <c r="N45" t="n">
-        <v>69.59155906777178</v>
+        <v>69.5915590677718</v>
       </c>
       <c r="O45" t="n">
-        <v>63.66268073238024</v>
+        <v>63.66268073238025</v>
       </c>
       <c r="P45" t="n">
-        <v>51.09491388881175</v>
+        <v>51.09491388881176</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.1555968078455</v>
+        <v>34.15559680784551</v>
       </c>
       <c r="R45" t="n">
-        <v>16.61306447264503</v>
+        <v>16.61306447264504</v>
       </c>
       <c r="S45" t="n">
         <v>4.970071209497855</v>
       </c>
       <c r="T45" t="n">
-        <v>1.078511320313702</v>
+        <v>1.078511320313703</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01760355800294401</v>
+        <v>0.01760355800294402</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I46" t="n">
-        <v>6.746068203952253</v>
+        <v>6.746068203952254</v>
       </c>
       <c r="J46" t="n">
         <v>15.85978610100866</v>
@@ -34530,31 +34530,31 @@
         <v>26.06250049773572</v>
       </c>
       <c r="L46" t="n">
-        <v>33.35102763223553</v>
+        <v>33.35102763223554</v>
       </c>
       <c r="M46" t="n">
         <v>35.1639824790655</v>
       </c>
       <c r="N46" t="n">
-        <v>34.32786157107869</v>
+        <v>34.3278615710787</v>
       </c>
       <c r="O46" t="n">
         <v>31.7073362862907</v>
       </c>
       <c r="P46" t="n">
-        <v>27.13110380452863</v>
+        <v>27.13110380452864</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.78416995967478</v>
+        <v>18.78416995967479</v>
       </c>
       <c r="R46" t="n">
         <v>10.08647319732401</v>
       </c>
       <c r="S46" t="n">
-        <v>3.909375074660357</v>
+        <v>3.909375074660358</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9584800652531914</v>
+        <v>0.9584800652531915</v>
       </c>
       <c r="U46" t="n">
         <v>0.0122359157266365</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
@@ -35261,10 +35261,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="P9" t="n">
         <v>6.876045741711437</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K11" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L11" t="n">
         <v>260.8134431535972</v>
@@ -35428,7 +35428,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.01386755926666</v>
+        <v>44.01386755926679</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.42339400185796</v>
       </c>
       <c r="K13" t="n">
-        <v>135.1729698558738</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L13" t="n">
         <v>192.3210140765726</v>
       </c>
       <c r="M13" t="n">
-        <v>122.1712534427641</v>
+        <v>206.127820624927</v>
       </c>
       <c r="N13" t="n">
         <v>209.8399951343282</v>
@@ -35586,7 +35586,7 @@
         <v>155.789624253443</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.00208789200133</v>
+        <v>64.00208789200131</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K14" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L14" t="n">
         <v>260.8134431535972</v>
@@ -35662,7 +35662,7 @@
         <v>234.9622464903489</v>
       </c>
       <c r="P14" t="n">
-        <v>162.4799091059846</v>
+        <v>162.4799091059847</v>
       </c>
       <c r="Q14" t="n">
         <v>44.01386755926679</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.42339400185796</v>
       </c>
       <c r="K16" t="n">
-        <v>51.21640267371232</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L16" t="n">
-        <v>192.3210140765725</v>
+        <v>192.3210140765726</v>
       </c>
       <c r="M16" t="n">
         <v>206.127820624927</v>
       </c>
       <c r="N16" t="n">
-        <v>209.8399951343281</v>
+        <v>209.8399951343282</v>
       </c>
       <c r="O16" t="n">
-        <v>187.6724253843512</v>
+        <v>187.6724253843513</v>
       </c>
       <c r="P16" t="n">
         <v>155.789624253443</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.00208789200127</v>
+        <v>64.00208789200131</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K17" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L17" t="n">
         <v>260.8134431535972</v>
@@ -35902,7 +35902,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.01386755926666</v>
+        <v>44.01386755926679</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>89.85090149708613</v>
       </c>
       <c r="L18" t="n">
-        <v>89.85090149708613</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>379.9834547461365</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.793008671852871</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L19" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M19" t="n">
-        <v>74.7478594409061</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N19" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O19" t="n">
-        <v>56.29246420033039</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P19" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K20" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L20" t="n">
         <v>260.8134431535972</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>290.3835747859679</v>
+        <v>89.85090149708613</v>
       </c>
       <c r="M21" t="n">
-        <v>179.4507814572547</v>
+        <v>379.9834547461365</v>
       </c>
       <c r="N21" t="n">
         <v>379.9834547461365</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.793008671852871</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L22" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M22" t="n">
-        <v>74.7478594409061</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N22" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O22" t="n">
-        <v>56.29246420033039</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P22" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.756183208356791e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K23" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L23" t="n">
         <v>260.8134431535972</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>89.85090149708613</v>
+        <v>290.3835747859679</v>
       </c>
       <c r="M24" t="n">
-        <v>379.9834547461365</v>
+        <v>179.4507814572547</v>
       </c>
       <c r="N24" t="n">
         <v>379.9834547461365</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.793008671852871</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L25" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M25" t="n">
-        <v>74.7478594409061</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N25" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O25" t="n">
-        <v>56.29246420033039</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P25" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6202691763124</v>
+        <v>180.6202691763123</v>
       </c>
       <c r="K26" t="n">
         <v>317.794115082382</v>
       </c>
       <c r="L26" t="n">
-        <v>410.9381164606558</v>
+        <v>410.9381164606557</v>
       </c>
       <c r="M26" t="n">
         <v>457.1041705424142</v>
@@ -36610,13 +36610,13 @@
         <v>385.0869197974075</v>
       </c>
       <c r="P26" t="n">
-        <v>312.6045824130433</v>
+        <v>312.6045824130443</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1385408663254</v>
+        <v>194.1385408663253</v>
       </c>
       <c r="R26" t="n">
-        <v>31.66960884467815</v>
+        <v>31.66960884467812</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.509200288846216</v>
+        <v>1.509200288846188</v>
       </c>
       <c r="E28" t="n">
-        <v>3.690710660489401</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.703625284127327</v>
+        <v>4.703625284127298</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.420266583752543</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.62527929139446</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.793008671852871</v>
+        <v>21.08028156876547</v>
       </c>
       <c r="L28" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8725327479647</v>
+        <v>224.8725327479646</v>
       </c>
       <c r="N28" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O28" t="n">
-        <v>63.22135385362551</v>
+        <v>206.4171375073889</v>
       </c>
       <c r="P28" t="n">
         <v>174.5343363764807</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.74680001503899</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.420266583752514</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.62527929139443</v>
       </c>
       <c r="K31" t="n">
-        <v>3.793008671852871</v>
+        <v>10.72189832514885</v>
       </c>
       <c r="L31" t="n">
-        <v>60.94105289255168</v>
+        <v>211.0657261996102</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8725327479646</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N31" t="n">
-        <v>78.46003395030729</v>
+        <v>228.5847072573658</v>
       </c>
       <c r="O31" t="n">
-        <v>137.2668997287732</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5343363764807</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.74680001503896</v>
+        <v>82.74680001503894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.399239730608</v>
+        <v>182.3992397306079</v>
       </c>
       <c r="K32" t="n">
-        <v>319.5730856366777</v>
+        <v>319.5730856366775</v>
       </c>
       <c r="L32" t="n">
-        <v>412.7170870149514</v>
+        <v>412.7170870149513</v>
       </c>
       <c r="M32" t="n">
-        <v>415.6460431711708</v>
+        <v>458.8831410967097</v>
       </c>
       <c r="N32" t="n">
-        <v>449.0705947983402</v>
+        <v>405.8334968728026</v>
       </c>
       <c r="O32" t="n">
-        <v>386.8658903517031</v>
+        <v>386.865890351703</v>
       </c>
       <c r="P32" t="n">
-        <v>314.3835529673389</v>
+        <v>314.3835529673388</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.917511420621</v>
+        <v>195.9175114206209</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44857939897378</v>
+        <v>33.44857939897366</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.288170843141842</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>5.469681214785027</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.482595838422952</v>
+        <v>6.482595838422839</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.199237138048169</v>
+        <v>3.199237138048054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>49.11329338697058</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L34" t="n">
-        <v>212.8446967539059</v>
+        <v>212.8446967539058</v>
       </c>
       <c r="M34" t="n">
-        <v>74.7478594409061</v>
+        <v>128.8259962139526</v>
       </c>
       <c r="N34" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O34" t="n">
-        <v>208.1961080616846</v>
+        <v>208.1961080616845</v>
       </c>
       <c r="P34" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.52577056933461</v>
+        <v>84.52577056933448</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K35" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L35" t="n">
         <v>260.8134431535972</v>
@@ -37321,10 +37321,10 @@
         <v>234.9622464903489</v>
       </c>
       <c r="P35" t="n">
-        <v>240.1943240838747</v>
+        <v>162.4799091059847</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.01386755926679</v>
+        <v>121.7282825371591</v>
       </c>
       <c r="R35" t="n">
         <v>102.4516219615872</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.8311443711789</v>
       </c>
       <c r="L36" t="n">
-        <v>244.3059445296954</v>
+        <v>74.47480015851852</v>
       </c>
       <c r="M36" t="n">
         <v>391.3681995499866</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.793008671852871</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L37" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M37" t="n">
-        <v>74.7478594409061</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N37" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O37" t="n">
-        <v>56.29246420033039</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P37" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K38" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L38" t="n">
         <v>260.8134431535972</v>
@@ -37555,16 +37555,16 @@
         <v>297.1669509369859</v>
       </c>
       <c r="O38" t="n">
-        <v>234.9622464903489</v>
+        <v>431.3645947650478</v>
       </c>
       <c r="P38" t="n">
-        <v>365.9284635243007</v>
+        <v>162.4799091059847</v>
       </c>
       <c r="Q38" t="n">
         <v>44.01386755926679</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>7.046206143616363</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>244.3059445296968</v>
+        <v>290.3835747859679</v>
       </c>
       <c r="M39" t="n">
-        <v>391.3681995499866</v>
+        <v>345.2905692937146</v>
       </c>
       <c r="N39" t="n">
         <v>417.592221327992</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.793008671852871</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L40" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M40" t="n">
-        <v>74.7478594409061</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N40" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O40" t="n">
-        <v>56.29246420033039</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P40" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.4955958692538</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K41" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L41" t="n">
         <v>260.8134431535972</v>
@@ -37792,13 +37792,13 @@
         <v>492.0884839238016</v>
       </c>
       <c r="O41" t="n">
-        <v>281.1521298962426</v>
+        <v>234.9622464903489</v>
       </c>
       <c r="P41" t="n">
-        <v>162.4799091059847</v>
+        <v>365.2591132955454</v>
       </c>
       <c r="Q41" t="n">
-        <v>246.7930717488273</v>
+        <v>90.20375096516004</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.53329153650331</v>
+        <v>24.53329153650334</v>
       </c>
       <c r="K42" t="n">
         <v>169.8311443711789</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.793008671852871</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L43" t="n">
-        <v>60.94105289255168</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M43" t="n">
-        <v>74.7478594409061</v>
+        <v>74.74785944090608</v>
       </c>
       <c r="N43" t="n">
         <v>78.46003395030729</v>
       </c>
       <c r="O43" t="n">
-        <v>56.29246420033039</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P43" t="n">
-        <v>24.40966306942213</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.28587067814139</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.285870678140644</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.58320313112813</v>
       </c>
       <c r="J44" t="n">
-        <v>30.49559586925378</v>
+        <v>30.49559586925379</v>
       </c>
       <c r="K44" t="n">
         <v>167.6694417753234</v>
       </c>
       <c r="L44" t="n">
-        <v>299.1456553567458</v>
+        <v>463.5926473431578</v>
       </c>
       <c r="M44" t="n">
         <v>306.9794972353557</v>
       </c>
       <c r="N44" t="n">
-        <v>297.1669509369859</v>
+        <v>492.0884839238016</v>
       </c>
       <c r="O44" t="n">
-        <v>234.9622464903489</v>
+        <v>264.4138915206835</v>
       </c>
       <c r="P44" t="n">
-        <v>365.2591132955453</v>
+        <v>162.4799091059847</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.7930717488273</v>
+        <v>44.01386755926679</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.155035244430488</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.53329153650327</v>
+        <v>24.53329153650328</v>
       </c>
       <c r="K45" t="n">
         <v>169.8311443711789</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.793008671852864</v>
+        <v>3.793008671852867</v>
       </c>
       <c r="L46" t="n">
         <v>60.94105289255167</v>
@@ -38184,16 +38184,16 @@
         <v>74.74785944090608</v>
       </c>
       <c r="N46" t="n">
-        <v>78.46003395030729</v>
+        <v>82.74590462844796</v>
       </c>
       <c r="O46" t="n">
-        <v>56.29246420033037</v>
+        <v>56.29246420033038</v>
       </c>
       <c r="P46" t="n">
         <v>24.40966306942212</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.285870678141161</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
